--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_14_8.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_14_8.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1922669.51422679</v>
+        <v>-1924528.56950915</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4728206.377206863</v>
+        <v>4728206.377206868</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673436</v>
       </c>
     </row>
     <row r="9">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>318.4716714268617</v>
+        <v>318.4716714268618</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>290.4208713840641</v>
+        <v>290.4208713840642</v>
       </c>
       <c r="E11" t="n">
-        <v>317.668199835643</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>342.6138755050926</v>
+        <v>342.6138755050927</v>
       </c>
       <c r="G11" t="n">
-        <v>10.48664052998271</v>
+        <v>348.305269075243</v>
       </c>
       <c r="H11" t="n">
-        <v>247.1997591548757</v>
+        <v>247.1997591548758</v>
       </c>
       <c r="I11" t="n">
-        <v>40.76113535209349</v>
+        <v>40.76113535209355</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.42729154253637</v>
+        <v>62.27686283291712</v>
       </c>
       <c r="T11" t="n">
-        <v>146.8599114426837</v>
+        <v>146.8599114426838</v>
       </c>
       <c r="U11" t="n">
-        <v>186.8646588149558</v>
+        <v>186.8646588149559</v>
       </c>
       <c r="V11" t="n">
         <v>263.4900882335161</v>
@@ -1497,7 +1497,7 @@
         <v>9.291614910404817</v>
       </c>
       <c r="S12" t="n">
-        <v>144.4990485769321</v>
+        <v>144.4990485769316</v>
       </c>
       <c r="T12" t="n">
         <v>194.2657420118874</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>98.61534816466131</v>
+        <v>115.5698099453185</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>102.9846508620091</v>
       </c>
       <c r="D13" t="n">
-        <v>84.35330278159353</v>
+        <v>84.35330278159358</v>
       </c>
       <c r="E13" t="n">
-        <v>82.17179240995034</v>
+        <v>82.1717924099504</v>
       </c>
       <c r="F13" t="n">
-        <v>81.15887778631242</v>
+        <v>81.15887778631247</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>102.5018485138553</v>
       </c>
       <c r="H13" t="n">
-        <v>87.0562070471024</v>
+        <v>83.59864587332679</v>
       </c>
       <c r="I13" t="n">
-        <v>54.29025295233654</v>
+        <v>54.2902529523366</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>57.86261053062137</v>
+        <v>57.86261053062142</v>
       </c>
       <c r="S13" t="n">
         <v>138.3718506593841</v>
       </c>
       <c r="T13" t="n">
-        <v>158.4409511393645</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>221.9899339958002</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>187.8754730872092</v>
@@ -1591,7 +1591,7 @@
         <v>222.2608280999722</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>161.4474851524184</v>
       </c>
       <c r="Y13" t="n">
         <v>154.322483115476</v>
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>318.4716714268618</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>301.0107215343888</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>290.4208713840642</v>
+        <v>290.4208713840641</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>342.6138755050927</v>
+        <v>200.3550781760076</v>
       </c>
       <c r="G14" t="n">
-        <v>312.1229173120302</v>
+        <v>348.3052690752429</v>
       </c>
       <c r="H14" t="n">
-        <v>247.1997591548758</v>
+        <v>247.1997591548757</v>
       </c>
       <c r="I14" t="n">
-        <v>40.76113535209355</v>
+        <v>40.76113535209349</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.42729154253641</v>
+        <v>82.42729154253635</v>
       </c>
       <c r="T14" t="n">
-        <v>146.8599114426838</v>
+        <v>146.8599114426837</v>
       </c>
       <c r="U14" t="n">
-        <v>186.8646588149559</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>263.4900882335161</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>284.9787984807942</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>305.4689304418502</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>321.9757684194348</v>
       </c>
     </row>
     <row r="15">
@@ -1765,25 +1765,25 @@
         <v>115.5698099453185</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>92.19186768924757</v>
       </c>
       <c r="D16" t="n">
-        <v>84.35330278159358</v>
+        <v>84.35330278159353</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>82.17179240995034</v>
       </c>
       <c r="F16" t="n">
-        <v>81.15887778631247</v>
+        <v>81.15887778631242</v>
       </c>
       <c r="G16" t="n">
-        <v>102.5018485138553</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>87.05620704710248</v>
+        <v>87.05620704710242</v>
       </c>
       <c r="I16" t="n">
-        <v>54.2902529523366</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>57.86261053062142</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>138.3718506593841</v>
@@ -1828,7 +1828,7 @@
         <v>222.2608280999722</v>
       </c>
       <c r="X16" t="n">
-        <v>121.1564332548011</v>
+        <v>161.4474851524183</v>
       </c>
       <c r="Y16" t="n">
         <v>154.322483115476</v>
@@ -1850,7 +1850,7 @@
         <v>210.0565382037128</v>
       </c>
       <c r="E17" t="n">
-        <v>237.3038666552916</v>
+        <v>136.8916175913691</v>
       </c>
       <c r="F17" t="n">
         <v>262.2495423247412</v>
@@ -1904,7 +1904,7 @@
         <v>183.1257550531647</v>
       </c>
       <c r="W17" t="n">
-        <v>104.202216236521</v>
+        <v>204.6144653004428</v>
       </c>
       <c r="X17" t="n">
         <v>225.1045972614989</v>
@@ -2008,7 +2008,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>1.807459229599004</v>
+        <v>61.92110970718528</v>
       </c>
       <c r="F19" t="n">
         <v>0.7945446059610788</v>
@@ -2023,7 +2023,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>6.613065132155953</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>58.00751747903273</v>
+        <v>202.6340208960029</v>
       </c>
       <c r="T19" t="n">
         <v>78.07661795901315</v>
@@ -2065,10 +2065,10 @@
         <v>141.8964949196208</v>
       </c>
       <c r="X19" t="n">
-        <v>147.809867581809</v>
+        <v>81.08315197206699</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>73.95814993512462</v>
       </c>
     </row>
     <row r="20">
@@ -2090,7 +2090,7 @@
         <v>237.3038666552916</v>
       </c>
       <c r="F20" t="n">
-        <v>262.2495423247412</v>
+        <v>228.3328715231519</v>
       </c>
       <c r="G20" t="n">
         <v>267.9409358948915</v>
@@ -2132,13 +2132,13 @@
         <v>2.062958362185029</v>
       </c>
       <c r="T20" t="n">
-        <v>66.49557826233236</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>106.5003256346045</v>
       </c>
       <c r="V20" t="n">
-        <v>82.71350598924235</v>
+        <v>183.1257550531647</v>
       </c>
       <c r="W20" t="n">
         <v>204.6144653004428</v>
@@ -2236,19 +2236,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>35.20547676496713</v>
+        <v>95.31912724255336</v>
       </c>
       <c r="C22" t="n">
         <v>22.62031768165767</v>
       </c>
       <c r="D22" t="n">
-        <v>70.71568521098442</v>
+        <v>3.988969601242189</v>
       </c>
       <c r="E22" t="n">
         <v>1.807459229599004</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0.7945446059610788</v>
       </c>
       <c r="G22" t="n">
         <v>22.13751533350391</v>
@@ -2260,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>6.613065132155953</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2293,7 +2293,7 @@
         <v>78.07661795901315</v>
       </c>
       <c r="U22" t="n">
-        <v>141.6256008154488</v>
+        <v>286.252104232419</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>101.932192374709</v>
+        <v>95.31912724255318</v>
       </c>
       <c r="C25" t="n">
         <v>22.62031768165767</v>
@@ -2491,13 +2491,13 @@
         <v>22.13751533350391</v>
       </c>
       <c r="H25" t="n">
-        <v>151.3183772837212</v>
+        <v>6.691873866751072</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>6.613065132155953</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>58.00751747903273</v>
+        <v>202.6340208960029</v>
       </c>
       <c r="T25" t="n">
         <v>222.7031213759833</v>
@@ -2555,25 +2555,25 @@
         <v>302.3695084831292</v>
       </c>
       <c r="C26" t="n">
-        <v>284.9085585906562</v>
+        <v>284.9085585906561</v>
       </c>
       <c r="D26" t="n">
-        <v>274.3187084403316</v>
+        <v>274.3187084403315</v>
       </c>
       <c r="E26" t="n">
         <v>301.5660368919104</v>
       </c>
       <c r="F26" t="n">
-        <v>326.5117125613601</v>
+        <v>326.51171256136</v>
       </c>
       <c r="G26" t="n">
-        <v>332.2031061315104</v>
+        <v>332.2031061315103</v>
       </c>
       <c r="H26" t="n">
         <v>231.0975962111432</v>
       </c>
       <c r="I26" t="n">
-        <v>24.65897240836095</v>
+        <v>24.65897240836092</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>66.32512859880383</v>
+        <v>66.32512859880381</v>
       </c>
       <c r="T26" t="n">
-        <v>130.7577484989512</v>
+        <v>130.7577484989511</v>
       </c>
       <c r="U26" t="n">
-        <v>170.7624958712233</v>
+        <v>170.7624958712232</v>
       </c>
       <c r="V26" t="n">
         <v>247.3879252897835</v>
@@ -2618,7 +2618,7 @@
         <v>268.8766355370616</v>
       </c>
       <c r="X26" t="n">
-        <v>289.3667674981177</v>
+        <v>289.3667674981176</v>
       </c>
       <c r="Y26" t="n">
         <v>305.8736054757022</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>9.291614910404817</v>
+        <v>9.291614910404832</v>
       </c>
       <c r="S27" t="n">
         <v>144.499048576932</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>99.46764700158593</v>
+        <v>99.46764700158589</v>
       </c>
       <c r="C28" t="n">
-        <v>86.88248791827647</v>
+        <v>86.88248791827642</v>
       </c>
       <c r="D28" t="n">
-        <v>68.25113983786099</v>
+        <v>68.25113983786095</v>
       </c>
       <c r="E28" t="n">
-        <v>66.0696294662178</v>
+        <v>66.06962946621776</v>
       </c>
       <c r="F28" t="n">
-        <v>65.05671484257988</v>
+        <v>65.05671484257984</v>
       </c>
       <c r="G28" t="n">
-        <v>86.39968557012273</v>
+        <v>86.39968557012268</v>
       </c>
       <c r="H28" t="n">
-        <v>70.95404410336987</v>
+        <v>70.95404410336982</v>
       </c>
       <c r="I28" t="n">
-        <v>38.18809000860401</v>
+        <v>38.18809000860397</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.76044758688883</v>
+        <v>41.76044758688879</v>
       </c>
       <c r="S28" t="n">
         <v>122.2696877156515</v>
       </c>
       <c r="T28" t="n">
-        <v>142.338788195632</v>
+        <v>142.3387881956319</v>
       </c>
       <c r="U28" t="n">
         <v>205.8877710520676</v>
@@ -2776,7 +2776,7 @@
         <v>206.1586651562396</v>
       </c>
       <c r="X28" t="n">
-        <v>145.3453222086858</v>
+        <v>145.3453222086857</v>
       </c>
       <c r="Y28" t="n">
         <v>138.2203201717434</v>
@@ -2792,25 +2792,25 @@
         <v>302.3695084831292</v>
       </c>
       <c r="C29" t="n">
-        <v>284.9085585906561</v>
+        <v>284.9085585906562</v>
       </c>
       <c r="D29" t="n">
-        <v>274.3187084403315</v>
+        <v>274.3187084403316</v>
       </c>
       <c r="E29" t="n">
         <v>301.5660368919104</v>
       </c>
       <c r="F29" t="n">
-        <v>326.51171256136</v>
+        <v>326.5117125613601</v>
       </c>
       <c r="G29" t="n">
-        <v>332.2031061315103</v>
+        <v>332.2031061315104</v>
       </c>
       <c r="H29" t="n">
         <v>231.0975962111432</v>
       </c>
       <c r="I29" t="n">
-        <v>24.65897240836092</v>
+        <v>24.65897240836095</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2843,10 +2843,10 @@
         <v>66.32512859880381</v>
       </c>
       <c r="T29" t="n">
-        <v>130.7577484989511</v>
+        <v>130.7577484989512</v>
       </c>
       <c r="U29" t="n">
-        <v>170.7624958712232</v>
+        <v>170.7624958712233</v>
       </c>
       <c r="V29" t="n">
         <v>247.3879252897835</v>
@@ -2855,7 +2855,7 @@
         <v>268.8766355370616</v>
       </c>
       <c r="X29" t="n">
-        <v>289.3667674981176</v>
+        <v>289.3667674981177</v>
       </c>
       <c r="Y29" t="n">
         <v>305.8736054757022</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>9.291614910404832</v>
+        <v>9.291614910404817</v>
       </c>
       <c r="S30" t="n">
         <v>144.499048576932</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>99.46764700158589</v>
+        <v>99.46764700158593</v>
       </c>
       <c r="C31" t="n">
-        <v>86.88248791827642</v>
+        <v>86.88248791827647</v>
       </c>
       <c r="D31" t="n">
-        <v>68.25113983786095</v>
+        <v>68.25113983786099</v>
       </c>
       <c r="E31" t="n">
-        <v>66.06962946621776</v>
+        <v>66.0696294662178</v>
       </c>
       <c r="F31" t="n">
-        <v>65.05671484257984</v>
+        <v>65.05671484257988</v>
       </c>
       <c r="G31" t="n">
-        <v>86.39968557012268</v>
+        <v>86.39968557012273</v>
       </c>
       <c r="H31" t="n">
-        <v>70.95404410336982</v>
+        <v>70.95404410336988</v>
       </c>
       <c r="I31" t="n">
-        <v>38.18809000860397</v>
+        <v>38.18809000860401</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.76044758688879</v>
+        <v>41.76044758688883</v>
       </c>
       <c r="S31" t="n">
         <v>122.2696877156515</v>
       </c>
       <c r="T31" t="n">
-        <v>142.3387881956319</v>
+        <v>142.338788195632</v>
       </c>
       <c r="U31" t="n">
         <v>205.8877710520676</v>
@@ -3013,7 +3013,7 @@
         <v>206.1586651562396</v>
       </c>
       <c r="X31" t="n">
-        <v>145.3453222086857</v>
+        <v>145.3453222086858</v>
       </c>
       <c r="Y31" t="n">
         <v>138.2203201717434</v>
@@ -3029,7 +3029,7 @@
         <v>302.3695084831292</v>
       </c>
       <c r="C32" t="n">
-        <v>284.9085585906561</v>
+        <v>284.9085585906562</v>
       </c>
       <c r="D32" t="n">
         <v>274.3187084403315</v>
@@ -3041,10 +3041,10 @@
         <v>326.51171256136</v>
       </c>
       <c r="G32" t="n">
-        <v>332.2031061315103</v>
+        <v>332.2031061315104</v>
       </c>
       <c r="H32" t="n">
-        <v>231.0975962111431</v>
+        <v>231.0975962111432</v>
       </c>
       <c r="I32" t="n">
         <v>24.65897240836092</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>66.3251285988038</v>
+        <v>66.32512859880379</v>
       </c>
       <c r="T32" t="n">
         <v>130.7577484989511</v>
       </c>
       <c r="U32" t="n">
-        <v>170.7624958712232</v>
+        <v>170.7624958712233</v>
       </c>
       <c r="V32" t="n">
         <v>247.3879252897835</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>9.291614910404832</v>
+        <v>9.291614910404817</v>
       </c>
       <c r="S33" t="n">
         <v>144.499048576932</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>99.46764700158589</v>
+        <v>99.4676470015859</v>
       </c>
       <c r="C34" t="n">
-        <v>86.88248791827642</v>
+        <v>86.88248791827644</v>
       </c>
       <c r="D34" t="n">
-        <v>68.25113983786095</v>
+        <v>68.25113983786096</v>
       </c>
       <c r="E34" t="n">
-        <v>66.06962946621776</v>
+        <v>66.06962946621778</v>
       </c>
       <c r="F34" t="n">
-        <v>65.05671484257984</v>
+        <v>65.05671484257985</v>
       </c>
       <c r="G34" t="n">
-        <v>86.39968557012268</v>
+        <v>86.3996855701227</v>
       </c>
       <c r="H34" t="n">
-        <v>70.95404410336984</v>
+        <v>70.95404410336985</v>
       </c>
       <c r="I34" t="n">
-        <v>38.18809000860396</v>
+        <v>38.18809000860398</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.76044758688879</v>
+        <v>41.7604475868888</v>
       </c>
       <c r="S34" t="n">
         <v>122.2696877156515</v>
@@ -3250,7 +3250,7 @@
         <v>206.1586651562396</v>
       </c>
       <c r="X34" t="n">
-        <v>145.3453222086857</v>
+        <v>145.3453222086858</v>
       </c>
       <c r="Y34" t="n">
         <v>138.2203201717434</v>
@@ -3266,7 +3266,7 @@
         <v>302.3695084831292</v>
       </c>
       <c r="C35" t="n">
-        <v>284.9085585906562</v>
+        <v>284.9085585906561</v>
       </c>
       <c r="D35" t="n">
         <v>274.3187084403315</v>
@@ -3278,13 +3278,13 @@
         <v>326.51171256136</v>
       </c>
       <c r="G35" t="n">
-        <v>332.2031061315104</v>
+        <v>332.2031061315103</v>
       </c>
       <c r="H35" t="n">
-        <v>231.0975962111432</v>
+        <v>231.0975962111431</v>
       </c>
       <c r="I35" t="n">
-        <v>24.65897240836094</v>
+        <v>24.6589724083609</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>66.32512859880381</v>
+        <v>66.32512859880376</v>
       </c>
       <c r="T35" t="n">
         <v>130.7577484989511</v>
       </c>
       <c r="U35" t="n">
-        <v>170.7624958712233</v>
+        <v>170.7624958712232</v>
       </c>
       <c r="V35" t="n">
         <v>247.3879252897835</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>9.291614910404832</v>
+        <v>9.291614910404817</v>
       </c>
       <c r="S36" t="n">
         <v>144.499048576932</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>99.4676470015859</v>
+        <v>99.46764700158587</v>
       </c>
       <c r="C37" t="n">
-        <v>86.88248791827644</v>
+        <v>86.88248791827641</v>
       </c>
       <c r="D37" t="n">
-        <v>68.25113983786096</v>
+        <v>68.25113983786093</v>
       </c>
       <c r="E37" t="n">
-        <v>66.06962946621778</v>
+        <v>66.06962946621775</v>
       </c>
       <c r="F37" t="n">
-        <v>65.05671484257985</v>
+        <v>65.05671484257982</v>
       </c>
       <c r="G37" t="n">
-        <v>86.3996855701227</v>
+        <v>86.39968557012267</v>
       </c>
       <c r="H37" t="n">
-        <v>70.95404410336985</v>
+        <v>70.95404410336982</v>
       </c>
       <c r="I37" t="n">
-        <v>38.18809000860398</v>
+        <v>38.18809000860395</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.7604475868888</v>
+        <v>41.76044758688877</v>
       </c>
       <c r="S37" t="n">
         <v>122.2696877156515</v>
@@ -3487,7 +3487,7 @@
         <v>206.1586651562396</v>
       </c>
       <c r="X37" t="n">
-        <v>145.3453222086858</v>
+        <v>145.3453222086857</v>
       </c>
       <c r="Y37" t="n">
         <v>138.2203201717434</v>
@@ -3503,7 +3503,7 @@
         <v>302.3695084831292</v>
       </c>
       <c r="C38" t="n">
-        <v>284.9085585906562</v>
+        <v>284.9085585906561</v>
       </c>
       <c r="D38" t="n">
         <v>274.3187084403315</v>
@@ -3515,13 +3515,13 @@
         <v>326.51171256136</v>
       </c>
       <c r="G38" t="n">
-        <v>332.2031061315104</v>
+        <v>332.2031061315103</v>
       </c>
       <c r="H38" t="n">
-        <v>231.0975962111432</v>
+        <v>231.0975962111431</v>
       </c>
       <c r="I38" t="n">
-        <v>24.65897240836094</v>
+        <v>24.6589724083609</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>66.32512859880381</v>
+        <v>66.32512859880377</v>
       </c>
       <c r="T38" t="n">
         <v>130.7577484989511</v>
       </c>
       <c r="U38" t="n">
-        <v>170.7624958712233</v>
+        <v>170.7624958712232</v>
       </c>
       <c r="V38" t="n">
         <v>247.3879252897835</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>9.291614910404832</v>
+        <v>9.291614910404817</v>
       </c>
       <c r="S39" t="n">
         <v>144.499048576932</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>99.4676470015859</v>
+        <v>99.46764700158587</v>
       </c>
       <c r="C40" t="n">
-        <v>86.88248791827644</v>
+        <v>86.88248791827641</v>
       </c>
       <c r="D40" t="n">
-        <v>68.25113983786096</v>
+        <v>68.25113983786093</v>
       </c>
       <c r="E40" t="n">
-        <v>66.06962946621778</v>
+        <v>66.06962946621775</v>
       </c>
       <c r="F40" t="n">
-        <v>65.05671484257985</v>
+        <v>65.05671484257982</v>
       </c>
       <c r="G40" t="n">
-        <v>86.3996855701227</v>
+        <v>86.39968557012266</v>
       </c>
       <c r="H40" t="n">
-        <v>70.95404410336985</v>
+        <v>70.95404410336981</v>
       </c>
       <c r="I40" t="n">
-        <v>38.18809000860398</v>
+        <v>38.18809000860395</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.7604475868888</v>
+        <v>41.76044758688877</v>
       </c>
       <c r="S40" t="n">
         <v>122.2696877156515</v>
@@ -3724,7 +3724,7 @@
         <v>206.1586651562396</v>
       </c>
       <c r="X40" t="n">
-        <v>145.3453222086858</v>
+        <v>145.3453222086857</v>
       </c>
       <c r="Y40" t="n">
         <v>138.2203201717434</v>
@@ -3740,7 +3740,7 @@
         <v>302.3695084831292</v>
       </c>
       <c r="C41" t="n">
-        <v>284.9085585906561</v>
+        <v>284.9085585906562</v>
       </c>
       <c r="D41" t="n">
         <v>274.3187084403315</v>
@@ -3752,13 +3752,13 @@
         <v>326.51171256136</v>
       </c>
       <c r="G41" t="n">
-        <v>332.2031061315103</v>
+        <v>332.2031061315104</v>
       </c>
       <c r="H41" t="n">
-        <v>231.0975962111431</v>
+        <v>231.0975962111432</v>
       </c>
       <c r="I41" t="n">
-        <v>24.65897240836088</v>
+        <v>24.65897240836092</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>66.32512859880376</v>
+        <v>66.32512859880379</v>
       </c>
       <c r="T41" t="n">
         <v>130.7577484989511</v>
       </c>
       <c r="U41" t="n">
-        <v>170.7624958712232</v>
+        <v>170.7624958712233</v>
       </c>
       <c r="V41" t="n">
         <v>247.3879252897835</v>
@@ -3806,7 +3806,7 @@
         <v>289.3667674981176</v>
       </c>
       <c r="Y41" t="n">
-        <v>305.8736054757021</v>
+        <v>305.8736054757022</v>
       </c>
     </row>
     <row r="42">
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>9.291614910404832</v>
+        <v>9.291614910404817</v>
       </c>
       <c r="S42" t="n">
         <v>144.499048576932</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>99.46764700158585</v>
+        <v>99.4676470015859</v>
       </c>
       <c r="C43" t="n">
-        <v>86.88248791827638</v>
+        <v>86.88248791827644</v>
       </c>
       <c r="D43" t="n">
-        <v>68.2511398378609</v>
+        <v>68.25113983786096</v>
       </c>
       <c r="E43" t="n">
-        <v>66.06962946621772</v>
+        <v>66.06962946621778</v>
       </c>
       <c r="F43" t="n">
-        <v>65.05671484257979</v>
+        <v>65.05671484257985</v>
       </c>
       <c r="G43" t="n">
-        <v>86.39968557012263</v>
+        <v>86.3996855701227</v>
       </c>
       <c r="H43" t="n">
-        <v>70.9540441033698</v>
+        <v>70.95404410336985</v>
       </c>
       <c r="I43" t="n">
-        <v>38.18809000860393</v>
+        <v>38.18809000860398</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.76044758688875</v>
+        <v>41.7604475868888</v>
       </c>
       <c r="S43" t="n">
         <v>122.2696877156515</v>
@@ -3952,7 +3952,7 @@
         <v>142.3387881956319</v>
       </c>
       <c r="U43" t="n">
-        <v>205.8877710520675</v>
+        <v>205.8877710520676</v>
       </c>
       <c r="V43" t="n">
         <v>171.7733101434766</v>
@@ -3961,10 +3961,10 @@
         <v>206.1586651562396</v>
       </c>
       <c r="X43" t="n">
-        <v>145.3453222086857</v>
+        <v>145.3453222086858</v>
       </c>
       <c r="Y43" t="n">
-        <v>138.2203201717433</v>
+        <v>138.2203201717434</v>
       </c>
     </row>
     <row r="44">
@@ -3977,7 +3977,7 @@
         <v>302.3695084831292</v>
       </c>
       <c r="C44" t="n">
-        <v>284.9085585906562</v>
+        <v>284.9085585906561</v>
       </c>
       <c r="D44" t="n">
         <v>274.3187084403315</v>
@@ -3989,13 +3989,13 @@
         <v>326.51171256136</v>
       </c>
       <c r="G44" t="n">
-        <v>332.2031061315104</v>
+        <v>332.2031061315103</v>
       </c>
       <c r="H44" t="n">
-        <v>231.0975962111432</v>
+        <v>231.0975962111431</v>
       </c>
       <c r="I44" t="n">
-        <v>24.65897240836094</v>
+        <v>24.65897240836087</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>66.32512859880381</v>
+        <v>66.32512859880374</v>
       </c>
       <c r="T44" t="n">
         <v>130.7577484989511</v>
       </c>
       <c r="U44" t="n">
-        <v>170.7624958712233</v>
+        <v>170.7624958712232</v>
       </c>
       <c r="V44" t="n">
         <v>247.3879252897835</v>
@@ -4043,7 +4043,7 @@
         <v>289.3667674981176</v>
       </c>
       <c r="Y44" t="n">
-        <v>305.8736054757022</v>
+        <v>305.8736054757021</v>
       </c>
     </row>
     <row r="45">
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>9.291614910404832</v>
+        <v>9.291614910404817</v>
       </c>
       <c r="S45" t="n">
         <v>144.499048576932</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>99.4676470015859</v>
+        <v>99.46764700158585</v>
       </c>
       <c r="C46" t="n">
-        <v>86.88248791827644</v>
+        <v>86.88248791827638</v>
       </c>
       <c r="D46" t="n">
-        <v>68.25113983786096</v>
+        <v>68.2511398378609</v>
       </c>
       <c r="E46" t="n">
-        <v>66.06962946621778</v>
+        <v>66.06962946621772</v>
       </c>
       <c r="F46" t="n">
-        <v>65.05671484257985</v>
+        <v>65.05671484257979</v>
       </c>
       <c r="G46" t="n">
-        <v>86.3996855701227</v>
+        <v>86.39968557012263</v>
       </c>
       <c r="H46" t="n">
-        <v>70.95404410336985</v>
+        <v>70.95404410336978</v>
       </c>
       <c r="I46" t="n">
-        <v>38.18809000860398</v>
+        <v>38.18809000860392</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.7604475868888</v>
+        <v>41.76044758688874</v>
       </c>
       <c r="S46" t="n">
-        <v>122.2696877156515</v>
+        <v>122.2696877156514</v>
       </c>
       <c r="T46" t="n">
         <v>142.3387881956319</v>
       </c>
       <c r="U46" t="n">
-        <v>205.8877710520676</v>
+        <v>205.8877710520675</v>
       </c>
       <c r="V46" t="n">
         <v>171.7733101434766</v>
@@ -4198,10 +4198,10 @@
         <v>206.1586651562396</v>
       </c>
       <c r="X46" t="n">
-        <v>145.3453222086858</v>
+        <v>145.3453222086857</v>
       </c>
       <c r="Y46" t="n">
-        <v>138.2203201717434</v>
+        <v>138.2203201717433</v>
       </c>
     </row>
   </sheetData>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1313.968594269819</v>
+        <v>1334.322562663372</v>
       </c>
       <c r="C11" t="n">
-        <v>1313.968594269819</v>
+        <v>1334.322562663372</v>
       </c>
       <c r="D11" t="n">
-        <v>1020.61417873036</v>
+        <v>1040.968147123913</v>
       </c>
       <c r="E11" t="n">
-        <v>699.7372091994079</v>
+        <v>1040.968147123913</v>
       </c>
       <c r="F11" t="n">
-        <v>353.6625874770921</v>
+        <v>694.8935254015976</v>
       </c>
       <c r="G11" t="n">
-        <v>343.0700212851904</v>
+        <v>343.0700212851906</v>
       </c>
       <c r="H11" t="n">
-        <v>93.37329486612411</v>
+        <v>93.37329486612418</v>
       </c>
       <c r="I11" t="n">
-        <v>52.20043087411048</v>
+        <v>52.20043087411047</v>
       </c>
       <c r="J11" t="n">
         <v>270.20410013431</v>
       </c>
       <c r="K11" t="n">
-        <v>660.8129244367267</v>
+        <v>717.6798929816109</v>
       </c>
       <c r="L11" t="n">
-        <v>1268.222841522305</v>
+        <v>1036.298463526985</v>
       </c>
       <c r="M11" t="n">
-        <v>1515.671556956461</v>
+        <v>1283.747178961141</v>
       </c>
       <c r="N11" t="n">
-        <v>1771.738059684842</v>
+        <v>1539.813681689522</v>
       </c>
       <c r="O11" t="n">
-        <v>2377.191315222785</v>
+        <v>2145.266937227465</v>
       </c>
       <c r="P11" t="n">
-        <v>2537.676557170988</v>
+        <v>2305.752179175667</v>
       </c>
       <c r="Q11" t="n">
-        <v>2610.021543705524</v>
+        <v>2588.289006463509</v>
       </c>
       <c r="R11" t="n">
         <v>2610.021543705524</v>
       </c>
       <c r="S11" t="n">
-        <v>2526.761653258518</v>
+        <v>2547.115621652072</v>
       </c>
       <c r="T11" t="n">
-        <v>2378.418308366918</v>
+        <v>2398.772276760471</v>
       </c>
       <c r="U11" t="n">
-        <v>2189.666127745751</v>
+        <v>2210.020096139304</v>
       </c>
       <c r="V11" t="n">
-        <v>1923.514523469471</v>
+        <v>1943.868491863025</v>
       </c>
       <c r="W11" t="n">
-        <v>1635.657151266649</v>
+        <v>1656.011119660202</v>
       </c>
       <c r="X11" t="n">
-        <v>1635.657151266649</v>
+        <v>1656.011119660202</v>
       </c>
       <c r="Y11" t="n">
-        <v>1635.657151266649</v>
+        <v>1656.011119660202</v>
       </c>
     </row>
     <row r="12">
@@ -5115,28 +5115,28 @@
         <v>91.60256992448004</v>
       </c>
       <c r="I12" t="n">
-        <v>52.20043087411048</v>
+        <v>52.20043087411047</v>
       </c>
       <c r="J12" t="n">
         <v>188.3485431278349</v>
       </c>
       <c r="K12" t="n">
-        <v>547.6681954365251</v>
+        <v>356.7566878794452</v>
       </c>
       <c r="L12" t="n">
-        <v>820.4280748539235</v>
+        <v>534.1787576441299</v>
       </c>
       <c r="M12" t="n">
-        <v>1046.828129983181</v>
+        <v>1180.159089711247</v>
       </c>
       <c r="N12" t="n">
-        <v>1692.808462050298</v>
+        <v>1826.139421778364</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.363215178962</v>
+        <v>2419.61787099099</v>
       </c>
       <c r="P12" t="n">
-        <v>2355.67892497901</v>
+        <v>2563.6554398375</v>
       </c>
       <c r="Q12" t="n">
         <v>2610.021543705524</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>445.1604641845097</v>
+        <v>649.2300987320741</v>
       </c>
       <c r="C13" t="n">
-        <v>445.1604641845097</v>
+        <v>545.2051988714588</v>
       </c>
       <c r="D13" t="n">
-        <v>359.9551078394657</v>
+        <v>459.9998425264148</v>
       </c>
       <c r="E13" t="n">
-        <v>276.9532973243644</v>
+        <v>376.9980320113134</v>
       </c>
       <c r="F13" t="n">
-        <v>194.9746328937458</v>
+        <v>295.0193675806947</v>
       </c>
       <c r="G13" t="n">
-        <v>194.9746328937458</v>
+        <v>191.4821468596288</v>
       </c>
       <c r="H13" t="n">
         <v>107.039070219905</v>
       </c>
       <c r="I13" t="n">
-        <v>52.20043087411048</v>
+        <v>52.20043087411047</v>
       </c>
       <c r="J13" t="n">
         <v>109.2730449275286</v>
       </c>
       <c r="K13" t="n">
-        <v>291.970805684555</v>
+        <v>291.9708056845549</v>
       </c>
       <c r="L13" t="n">
-        <v>563.4959032733536</v>
+        <v>563.4959032733534</v>
       </c>
       <c r="M13" t="n">
-        <v>856.7118258711469</v>
+        <v>856.7118258711466</v>
       </c>
       <c r="N13" t="n">
-        <v>1149.903076288691</v>
+        <v>1149.90307628869</v>
       </c>
       <c r="O13" t="n">
         <v>1409.552953254355</v>
       </c>
       <c r="P13" t="n">
-        <v>1617.389630818506</v>
+        <v>1617.389630818505</v>
       </c>
       <c r="Q13" t="n">
-        <v>1697.422563974903</v>
+        <v>1697.422563974902</v>
       </c>
       <c r="R13" t="n">
-        <v>1638.975482630841</v>
+        <v>1638.97548263084</v>
       </c>
       <c r="S13" t="n">
-        <v>1499.205936510251</v>
+        <v>1499.20593651025</v>
       </c>
       <c r="T13" t="n">
-        <v>1339.164571723014</v>
+        <v>1499.20593651025</v>
       </c>
       <c r="U13" t="n">
-        <v>1114.932315161599</v>
+        <v>1499.20593651025</v>
       </c>
       <c r="V13" t="n">
-        <v>925.1591100230044</v>
+        <v>1309.432731371655</v>
       </c>
       <c r="W13" t="n">
-        <v>700.6532230533353</v>
+        <v>1084.926844401986</v>
       </c>
       <c r="X13" t="n">
-        <v>700.6532230533353</v>
+        <v>921.8485765712605</v>
       </c>
       <c r="Y13" t="n">
-        <v>544.7719269770969</v>
+        <v>765.9672804950221</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1601.825966472641</v>
+        <v>1190.626807785509</v>
       </c>
       <c r="C14" t="n">
-        <v>1297.774732599521</v>
+        <v>1190.626807785509</v>
       </c>
       <c r="D14" t="n">
-        <v>1004.420317060062</v>
+        <v>897.2723922460494</v>
       </c>
       <c r="E14" t="n">
-        <v>1004.420317060062</v>
+        <v>897.2723922460494</v>
       </c>
       <c r="F14" t="n">
-        <v>658.3456953377463</v>
+        <v>694.8935254015973</v>
       </c>
       <c r="G14" t="n">
-        <v>343.0700212851905</v>
+        <v>343.0700212851904</v>
       </c>
       <c r="H14" t="n">
-        <v>93.37329486612417</v>
+        <v>93.37329486612413</v>
       </c>
       <c r="I14" t="n">
         <v>52.20043087411048</v>
@@ -5279,19 +5279,19 @@
         <v>270.20410013431</v>
       </c>
       <c r="K14" t="n">
-        <v>717.679892981611</v>
+        <v>523.9855278157562</v>
       </c>
       <c r="L14" t="n">
-        <v>911.6052076622432</v>
+        <v>717.9108424963883</v>
       </c>
       <c r="M14" t="n">
-        <v>1159.053923096399</v>
+        <v>1363.891174563506</v>
       </c>
       <c r="N14" t="n">
-        <v>1805.034255163516</v>
+        <v>1619.957677291887</v>
       </c>
       <c r="O14" t="n">
-        <v>2166.99947446948</v>
+        <v>1848.418753379712</v>
       </c>
       <c r="P14" t="n">
         <v>2327.484716417682</v>
@@ -5309,19 +5309,19 @@
         <v>2378.418308366918</v>
       </c>
       <c r="U14" t="n">
-        <v>2189.66612774575</v>
+        <v>2378.418308366918</v>
       </c>
       <c r="V14" t="n">
-        <v>1923.514523469471</v>
+        <v>2112.266704090639</v>
       </c>
       <c r="W14" t="n">
-        <v>1923.514523469471</v>
+        <v>1824.409331887817</v>
       </c>
       <c r="X14" t="n">
-        <v>1923.514523469471</v>
+        <v>1515.854856694029</v>
       </c>
       <c r="Y14" t="n">
-        <v>1923.514523469471</v>
+        <v>1190.626807785509</v>
       </c>
     </row>
     <row r="15">
@@ -5355,19 +5355,19 @@
         <v>52.20043087411048</v>
       </c>
       <c r="J15" t="n">
-        <v>63.51841814083019</v>
+        <v>188.3485431278349</v>
       </c>
       <c r="K15" t="n">
-        <v>255.4732825381847</v>
+        <v>547.6681954365251</v>
       </c>
       <c r="L15" t="n">
-        <v>800.027294153294</v>
+        <v>725.0902652012098</v>
       </c>
       <c r="M15" t="n">
-        <v>1446.007626220411</v>
+        <v>951.4903203304676</v>
       </c>
       <c r="N15" t="n">
-        <v>1692.808462050298</v>
+        <v>1302.884765966336</v>
       </c>
       <c r="O15" t="n">
         <v>1896.363215178962</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>465.6958743904758</v>
+        <v>483.4449235147227</v>
       </c>
       <c r="C16" t="n">
-        <v>465.6958743904758</v>
+        <v>390.3218248387152</v>
       </c>
       <c r="D16" t="n">
-        <v>380.4905180454317</v>
+        <v>305.1164684936712</v>
       </c>
       <c r="E16" t="n">
-        <v>380.4905180454317</v>
+        <v>222.1146579785699</v>
       </c>
       <c r="F16" t="n">
-        <v>298.511853614813</v>
+        <v>140.1359935479513</v>
       </c>
       <c r="G16" t="n">
-        <v>194.9746328937458</v>
+        <v>140.1359935479513</v>
       </c>
       <c r="H16" t="n">
-        <v>107.039070219905</v>
+        <v>52.20043087411048</v>
       </c>
       <c r="I16" t="n">
         <v>52.20043087411048</v>
@@ -5437,13 +5437,13 @@
         <v>109.2730449275287</v>
       </c>
       <c r="K16" t="n">
-        <v>291.970805684555</v>
+        <v>291.9708056845552</v>
       </c>
       <c r="L16" t="n">
-        <v>563.4959032733536</v>
+        <v>563.495903273354</v>
       </c>
       <c r="M16" t="n">
-        <v>856.711825871147</v>
+        <v>856.7118258711471</v>
       </c>
       <c r="N16" t="n">
         <v>1149.903076288691</v>
@@ -5458,28 +5458,28 @@
         <v>1697.422563974903</v>
       </c>
       <c r="R16" t="n">
-        <v>1638.975482630841</v>
+        <v>1697.422563974903</v>
       </c>
       <c r="S16" t="n">
-        <v>1499.205936510251</v>
+        <v>1557.653017854313</v>
       </c>
       <c r="T16" t="n">
-        <v>1499.205936510251</v>
+        <v>1557.653017854313</v>
       </c>
       <c r="U16" t="n">
-        <v>1274.973679948836</v>
+        <v>1333.420761292899</v>
       </c>
       <c r="V16" t="n">
-        <v>1085.200474810241</v>
+        <v>1143.647556154304</v>
       </c>
       <c r="W16" t="n">
-        <v>860.6945878405724</v>
+        <v>919.1416691846347</v>
       </c>
       <c r="X16" t="n">
-        <v>738.3143522296622</v>
+        <v>756.0634013539091</v>
       </c>
       <c r="Y16" t="n">
-        <v>582.4330561534238</v>
+        <v>600.1821052776706</v>
       </c>
     </row>
     <row r="17">
@@ -5489,61 +5489,61 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1431.021337346029</v>
+        <v>1329.594823140046</v>
       </c>
       <c r="C17" t="n">
-        <v>1208.146197594476</v>
+        <v>1106.719683388493</v>
       </c>
       <c r="D17" t="n">
-        <v>995.9678761765841</v>
+        <v>894.5413619706017</v>
       </c>
       <c r="E17" t="n">
-        <v>756.2670007671986</v>
+        <v>756.2670007671985</v>
       </c>
       <c r="F17" t="n">
-        <v>491.3684731664498</v>
+        <v>491.3684731664497</v>
       </c>
       <c r="G17" t="n">
         <v>220.7210631716099</v>
       </c>
       <c r="H17" t="n">
-        <v>52.20043087411048</v>
+        <v>52.20043087411047</v>
       </c>
       <c r="I17" t="n">
-        <v>52.20043087411048</v>
+        <v>52.20043087411047</v>
       </c>
       <c r="J17" t="n">
-        <v>102.798451113957</v>
+        <v>270.20410013431</v>
       </c>
       <c r="K17" t="n">
-        <v>550.274243961258</v>
+        <v>717.6798929816109</v>
       </c>
       <c r="L17" t="n">
-        <v>1157.684161046836</v>
+        <v>911.6052076622431</v>
       </c>
       <c r="M17" t="n">
-        <v>1405.132876480992</v>
+        <v>1159.053923096399</v>
       </c>
       <c r="N17" t="n">
-        <v>1661.199379209373</v>
+        <v>1415.12042582478</v>
       </c>
       <c r="O17" t="n">
-        <v>2036.878056891004</v>
+        <v>1848.418753379712</v>
       </c>
       <c r="P17" t="n">
-        <v>2515.944019928973</v>
+        <v>2327.484716417682</v>
       </c>
       <c r="Q17" t="n">
-        <v>2588.28900646351</v>
+        <v>2610.021543705524</v>
       </c>
       <c r="R17" t="n">
         <v>2610.021543705524</v>
       </c>
       <c r="S17" t="n">
-        <v>2607.937747380085</v>
+        <v>2607.937747380084</v>
       </c>
       <c r="T17" t="n">
-        <v>2540.770496610052</v>
+        <v>2540.770496610051</v>
       </c>
       <c r="U17" t="n">
         <v>2433.194410110451</v>
@@ -5552,13 +5552,13 @@
         <v>2248.218899955739</v>
       </c>
       <c r="W17" t="n">
-        <v>2142.964136080466</v>
+        <v>2041.537621874483</v>
       </c>
       <c r="X17" t="n">
-        <v>1915.585755008245</v>
+        <v>1814.159240802263</v>
       </c>
       <c r="Y17" t="n">
-        <v>1671.533800221292</v>
+        <v>1570.107286015309</v>
       </c>
     </row>
     <row r="18">
@@ -5589,28 +5589,28 @@
         <v>91.60256992448004</v>
       </c>
       <c r="I18" t="n">
-        <v>52.20043087411048</v>
+        <v>52.20043087411047</v>
       </c>
       <c r="J18" t="n">
-        <v>124.5309257886148</v>
+        <v>188.3485431278349</v>
       </c>
       <c r="K18" t="n">
-        <v>483.8505780973049</v>
+        <v>547.6681954365251</v>
       </c>
       <c r="L18" t="n">
-        <v>1028.404589712414</v>
+        <v>725.0902652012098</v>
       </c>
       <c r="M18" t="n">
-        <v>1254.804644841672</v>
+        <v>951.4903203304676</v>
       </c>
       <c r="N18" t="n">
-        <v>1900.784976908789</v>
+        <v>1302.884765966336</v>
       </c>
       <c r="O18" t="n">
-        <v>2104.339730037453</v>
+        <v>1896.363215178962</v>
       </c>
       <c r="P18" t="n">
-        <v>2563.655439837501</v>
+        <v>2355.67892497901</v>
       </c>
       <c r="Q18" t="n">
         <v>2610.021543705524</v>
@@ -5647,34 +5647,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>256.914757879853</v>
+        <v>324.3154807179765</v>
       </c>
       <c r="C19" t="n">
-        <v>234.0659521408049</v>
+        <v>301.4666749789283</v>
       </c>
       <c r="D19" t="n">
-        <v>83.94931272846912</v>
+        <v>151.3500355665926</v>
       </c>
       <c r="E19" t="n">
-        <v>82.12359633493477</v>
+        <v>88.80346010478928</v>
       </c>
       <c r="F19" t="n">
-        <v>81.32102602588319</v>
+        <v>88.00088979573769</v>
       </c>
       <c r="G19" t="n">
-        <v>58.95989942638429</v>
+        <v>65.63976319623879</v>
       </c>
       <c r="H19" t="n">
-        <v>52.20043087411048</v>
+        <v>58.88029464396497</v>
       </c>
       <c r="I19" t="n">
-        <v>52.20043087411048</v>
+        <v>58.88029464396497</v>
       </c>
       <c r="J19" t="n">
-        <v>52.20043087411048</v>
+        <v>52.20043087411047</v>
       </c>
       <c r="K19" t="n">
-        <v>171.2786430968843</v>
+        <v>171.2786430968842</v>
       </c>
       <c r="L19" t="n">
         <v>379.1841921514302</v>
@@ -5698,25 +5698,25 @@
         <v>1195.013110181716</v>
       </c>
       <c r="S19" t="n">
-        <v>1136.419658182693</v>
+        <v>990.3322809938345</v>
       </c>
       <c r="T19" t="n">
-        <v>1057.554387517023</v>
+        <v>911.4670103281646</v>
       </c>
       <c r="U19" t="n">
-        <v>914.498225077176</v>
+        <v>768.4108478883173</v>
       </c>
       <c r="V19" t="n">
-        <v>805.9011140601478</v>
+        <v>659.8137368712892</v>
       </c>
       <c r="W19" t="n">
-        <v>662.571321212046</v>
+        <v>516.4839440231873</v>
       </c>
       <c r="X19" t="n">
-        <v>513.2684246647641</v>
+        <v>434.5817703140287</v>
       </c>
       <c r="Y19" t="n">
-        <v>292.475845521234</v>
+        <v>359.8765683593574</v>
       </c>
     </row>
     <row r="20">
@@ -5726,49 +5726,49 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1431.021337346029</v>
+        <v>1396.762073910079</v>
       </c>
       <c r="C20" t="n">
-        <v>1208.146197594476</v>
+        <v>1173.886934158526</v>
       </c>
       <c r="D20" t="n">
-        <v>995.9678761765841</v>
+        <v>961.7086127406347</v>
       </c>
       <c r="E20" t="n">
-        <v>756.2670007671986</v>
+        <v>722.0077373312492</v>
       </c>
       <c r="F20" t="n">
-        <v>491.3684731664497</v>
+        <v>491.3684731664498</v>
       </c>
       <c r="G20" t="n">
         <v>220.7210631716099</v>
       </c>
       <c r="H20" t="n">
-        <v>52.20043087411048</v>
+        <v>52.20043087411047</v>
       </c>
       <c r="I20" t="n">
-        <v>52.20043087411048</v>
+        <v>52.20043087411047</v>
       </c>
       <c r="J20" t="n">
-        <v>102.798451113957</v>
+        <v>270.20410013431</v>
       </c>
       <c r="K20" t="n">
-        <v>270.8990950979905</v>
+        <v>396.7759345361579</v>
       </c>
       <c r="L20" t="n">
-        <v>878.3090121835687</v>
+        <v>1004.185851621736</v>
       </c>
       <c r="M20" t="n">
-        <v>1125.757727617725</v>
+        <v>1650.166183688853</v>
       </c>
       <c r="N20" t="n">
-        <v>1771.738059684842</v>
+        <v>1906.232686417234</v>
       </c>
       <c r="O20" t="n">
-        <v>2377.191315222785</v>
+        <v>2134.69376250506</v>
       </c>
       <c r="P20" t="n">
-        <v>2537.676557170988</v>
+        <v>2327.484716417682</v>
       </c>
       <c r="Q20" t="n">
         <v>2610.021543705524</v>
@@ -5777,25 +5777,25 @@
         <v>2610.021543705524</v>
       </c>
       <c r="S20" t="n">
-        <v>2607.937747380085</v>
+        <v>2607.937747380084</v>
       </c>
       <c r="T20" t="n">
-        <v>2540.770496610052</v>
+        <v>2607.937747380084</v>
       </c>
       <c r="U20" t="n">
-        <v>2433.194410110451</v>
+        <v>2500.361660880484</v>
       </c>
       <c r="V20" t="n">
-        <v>2349.645414161721</v>
+        <v>2315.386150725772</v>
       </c>
       <c r="W20" t="n">
-        <v>2142.964136080466</v>
+        <v>2108.704872644516</v>
       </c>
       <c r="X20" t="n">
-        <v>1915.585755008245</v>
+        <v>1881.326491572295</v>
       </c>
       <c r="Y20" t="n">
-        <v>1671.533800221292</v>
+        <v>1637.274536785342</v>
       </c>
     </row>
     <row r="21">
@@ -5826,28 +5826,28 @@
         <v>91.60256992448004</v>
       </c>
       <c r="I21" t="n">
-        <v>52.20043087411048</v>
+        <v>52.20043087411047</v>
       </c>
       <c r="J21" t="n">
-        <v>63.51841814083019</v>
+        <v>188.3485431278349</v>
       </c>
       <c r="K21" t="n">
-        <v>161.0174858070676</v>
+        <v>547.6681954365251</v>
       </c>
       <c r="L21" t="n">
-        <v>705.5714974221769</v>
+        <v>820.4280748539237</v>
       </c>
       <c r="M21" t="n">
-        <v>1351.551829489294</v>
+        <v>1046.828129983181</v>
       </c>
       <c r="N21" t="n">
-        <v>1997.532161556411</v>
+        <v>1692.808462050298</v>
       </c>
       <c r="O21" t="n">
-        <v>2419.61787099099</v>
+        <v>1896.363215178962</v>
       </c>
       <c r="P21" t="n">
-        <v>2563.655439837501</v>
+        <v>2355.67892497901</v>
       </c>
       <c r="Q21" t="n">
         <v>2610.021543705524</v>
@@ -5884,34 +5884,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>324.3154807179765</v>
+        <v>117.5072444608487</v>
       </c>
       <c r="C22" t="n">
-        <v>301.4666749789283</v>
+        <v>94.65843872180059</v>
       </c>
       <c r="D22" t="n">
-        <v>230.0366899173279</v>
+        <v>90.62917649832363</v>
       </c>
       <c r="E22" t="n">
-        <v>228.2109735237935</v>
+        <v>88.80346010478928</v>
       </c>
       <c r="F22" t="n">
-        <v>81.32102602588319</v>
+        <v>88.00088979573769</v>
       </c>
       <c r="G22" t="n">
-        <v>58.95989942638429</v>
+        <v>65.63976319623879</v>
       </c>
       <c r="H22" t="n">
-        <v>52.20043087411048</v>
+        <v>58.88029464396497</v>
       </c>
       <c r="I22" t="n">
-        <v>52.20043087411048</v>
+        <v>58.88029464396497</v>
       </c>
       <c r="J22" t="n">
-        <v>52.20043087411048</v>
+        <v>52.20043087411047</v>
       </c>
       <c r="K22" t="n">
-        <v>171.2786430968843</v>
+        <v>171.2786430968842</v>
       </c>
       <c r="L22" t="n">
         <v>379.1841921514302</v>
@@ -5941,19 +5941,19 @@
         <v>1057.554387517023</v>
       </c>
       <c r="U22" t="n">
-        <v>914.498225077176</v>
+        <v>768.4108478883172</v>
       </c>
       <c r="V22" t="n">
-        <v>659.8137368712892</v>
+        <v>513.7263596824304</v>
       </c>
       <c r="W22" t="n">
-        <v>516.4839440231873</v>
+        <v>370.3965668343285</v>
       </c>
       <c r="X22" t="n">
-        <v>434.5817703140287</v>
+        <v>288.4943931251699</v>
       </c>
       <c r="Y22" t="n">
-        <v>359.8765683593574</v>
+        <v>213.7891911704986</v>
       </c>
     </row>
     <row r="23">
@@ -5978,40 +5978,40 @@
         <v>493.4384020277962</v>
       </c>
       <c r="G23" t="n">
-        <v>222.7909920329564</v>
+        <v>222.7909920329565</v>
       </c>
       <c r="H23" t="n">
-        <v>54.27035973545704</v>
+        <v>54.27035973545706</v>
       </c>
       <c r="I23" t="n">
-        <v>54.27035973545704</v>
+        <v>54.27035973545706</v>
       </c>
       <c r="J23" t="n">
-        <v>104.8683799753035</v>
+        <v>104.8683799753036</v>
       </c>
       <c r="K23" t="n">
-        <v>231.4402143771515</v>
+        <v>301.6253616641486</v>
       </c>
       <c r="L23" t="n">
-        <v>838.8501314627297</v>
+        <v>909.0352787497268</v>
       </c>
       <c r="M23" t="n">
-        <v>1510.445833189011</v>
+        <v>1580.630980476008</v>
       </c>
       <c r="N23" t="n">
-        <v>1933.645961112521</v>
+        <v>2252.226682202289</v>
       </c>
       <c r="O23" t="n">
-        <v>2162.107037200346</v>
+        <v>2480.687758290114</v>
       </c>
       <c r="P23" t="n">
         <v>2641.173000238316</v>
       </c>
       <c r="Q23" t="n">
-        <v>2713.517986772852</v>
+        <v>2713.517986772853</v>
       </c>
       <c r="R23" t="n">
-        <v>2713.517986772852</v>
+        <v>2713.517986772853</v>
       </c>
       <c r="S23" t="n">
         <v>2711.434190447413</v>
@@ -6060,31 +6060,31 @@
         <v>192.7644021255559</v>
       </c>
       <c r="H24" t="n">
-        <v>93.6724987858266</v>
+        <v>93.67249878582663</v>
       </c>
       <c r="I24" t="n">
-        <v>54.27035973545704</v>
+        <v>54.27035973545706</v>
       </c>
       <c r="J24" t="n">
         <v>190.4184719891815</v>
       </c>
       <c r="K24" t="n">
-        <v>287.9175396554189</v>
+        <v>549.7381242978718</v>
       </c>
       <c r="L24" t="n">
-        <v>832.4715512705282</v>
+        <v>1094.292135912981</v>
       </c>
       <c r="M24" t="n">
-        <v>1504.067252996809</v>
+        <v>1448.077555081758</v>
       </c>
       <c r="N24" t="n">
-        <v>2175.66295472309</v>
+        <v>1694.878390911645</v>
       </c>
       <c r="O24" t="n">
-        <v>2421.687799852337</v>
+        <v>1898.433144040308</v>
       </c>
       <c r="P24" t="n">
-        <v>2565.725368698847</v>
+        <v>2357.748853840356</v>
       </c>
       <c r="Q24" t="n">
         <v>2612.09147256687</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>258.9846867411996</v>
+        <v>119.5771733221953</v>
       </c>
       <c r="C25" t="n">
-        <v>236.1358810021514</v>
+        <v>96.72836758314718</v>
       </c>
       <c r="D25" t="n">
-        <v>232.1066187786745</v>
+        <v>92.69910535967021</v>
       </c>
       <c r="E25" t="n">
-        <v>230.2809023851401</v>
+        <v>90.87338896613586</v>
       </c>
       <c r="F25" t="n">
-        <v>229.4783320760885</v>
+        <v>90.07081865708427</v>
       </c>
       <c r="G25" t="n">
-        <v>207.1172054765896</v>
+        <v>67.70969205758537</v>
       </c>
       <c r="H25" t="n">
-        <v>54.27035973545704</v>
+        <v>60.95022350531156</v>
       </c>
       <c r="I25" t="n">
-        <v>54.27035973545704</v>
+        <v>60.95022350531156</v>
       </c>
       <c r="J25" t="n">
-        <v>54.27035973545704</v>
+        <v>54.27035973545706</v>
       </c>
       <c r="K25" t="n">
         <v>173.3485719582308</v>
       </c>
       <c r="L25" t="n">
-        <v>381.2541210127768</v>
+        <v>381.2541210127769</v>
       </c>
       <c r="M25" t="n">
         <v>610.8504950763174</v>
@@ -6172,25 +6172,25 @@
         <v>1197.083039043063</v>
       </c>
       <c r="S25" t="n">
-        <v>1138.48958704404</v>
+        <v>992.4022098551809</v>
       </c>
       <c r="T25" t="n">
-        <v>913.5369391895109</v>
+        <v>767.4495620006522</v>
       </c>
       <c r="U25" t="n">
-        <v>770.4807767496636</v>
+        <v>624.3933995608049</v>
       </c>
       <c r="V25" t="n">
-        <v>661.8836657326354</v>
+        <v>515.7962885437768</v>
       </c>
       <c r="W25" t="n">
-        <v>518.5538728845336</v>
+        <v>372.4664956956749</v>
       </c>
       <c r="X25" t="n">
-        <v>436.651699175375</v>
+        <v>290.5643219865163</v>
       </c>
       <c r="Y25" t="n">
-        <v>361.9464972207037</v>
+        <v>215.859120031845</v>
       </c>
     </row>
     <row r="26">
@@ -6200,73 +6200,73 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1866.521426036208</v>
+        <v>1866.521426036207</v>
       </c>
       <c r="C26" t="n">
-        <v>1578.735003217363</v>
+        <v>1578.735003217362</v>
       </c>
       <c r="D26" t="n">
-        <v>1301.64539873218</v>
+        <v>1301.645398732179</v>
       </c>
       <c r="E26" t="n">
-        <v>997.0332402555023</v>
+        <v>997.0332402555018</v>
       </c>
       <c r="F26" t="n">
-        <v>667.2234295874616</v>
+        <v>667.2234295874614</v>
       </c>
       <c r="G26" t="n">
-        <v>331.6647365253299</v>
+        <v>331.6647365253298</v>
       </c>
       <c r="H26" t="n">
-        <v>98.23282116053869</v>
+        <v>98.23282116053865</v>
       </c>
       <c r="I26" t="n">
-        <v>73.32476822280036</v>
+        <v>73.32476822280034</v>
       </c>
       <c r="J26" t="n">
-        <v>183.6935423005309</v>
+        <v>291.3284374829998</v>
       </c>
       <c r="K26" t="n">
-        <v>310.2653767023788</v>
+        <v>738.8042303303008</v>
       </c>
       <c r="L26" t="n">
-        <v>917.675293787957</v>
+        <v>1127.867134541262</v>
       </c>
       <c r="M26" t="n">
-        <v>1610.142407380017</v>
+        <v>1820.334248133322</v>
       </c>
       <c r="N26" t="n">
-        <v>2299.182365276263</v>
+        <v>2509.374206029568</v>
       </c>
       <c r="O26" t="n">
-        <v>2904.635620814206</v>
+        <v>3114.827461567511</v>
       </c>
       <c r="P26" t="n">
-        <v>3383.701583852176</v>
+        <v>3593.893424605481</v>
       </c>
       <c r="Q26" t="n">
-        <v>3666.238411140018</v>
+        <v>3666.238411140017</v>
       </c>
       <c r="R26" t="n">
-        <v>3666.238411140018</v>
+        <v>3666.238411140017</v>
       </c>
       <c r="S26" t="n">
-        <v>3599.243331747287</v>
+        <v>3599.243331747286</v>
       </c>
       <c r="T26" t="n">
-        <v>3467.164797909963</v>
+        <v>3467.164797909962</v>
       </c>
       <c r="U26" t="n">
         <v>3294.67742834307</v>
       </c>
       <c r="V26" t="n">
-        <v>3044.790635121067</v>
+        <v>3044.790635121066</v>
       </c>
       <c r="W26" t="n">
-        <v>2773.19807397252</v>
+        <v>2773.198073972519</v>
       </c>
       <c r="X26" t="n">
-        <v>2480.908409833007</v>
+        <v>2480.908409833006</v>
       </c>
       <c r="Y26" t="n">
         <v>2171.945171978762</v>
@@ -6300,28 +6300,28 @@
         <v>112.7269072731699</v>
       </c>
       <c r="I27" t="n">
-        <v>73.32476822280036</v>
+        <v>73.32476822280034</v>
       </c>
       <c r="J27" t="n">
-        <v>209.4728804765248</v>
+        <v>84.64275548952003</v>
       </c>
       <c r="K27" t="n">
-        <v>568.792532785215</v>
+        <v>443.9624077982102</v>
       </c>
       <c r="L27" t="n">
-        <v>1113.346544400324</v>
+        <v>988.5164194133195</v>
       </c>
       <c r="M27" t="n">
-        <v>1339.746599529582</v>
+        <v>1214.916474542577</v>
       </c>
       <c r="N27" t="n">
-        <v>1921.909314257479</v>
+        <v>1936.266260972582</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.464067386143</v>
+        <v>2139.821014101246</v>
       </c>
       <c r="P27" t="n">
-        <v>2584.779777186191</v>
+        <v>2376.8032623277</v>
       </c>
       <c r="Q27" t="n">
         <v>2631.145881054214</v>
@@ -6376,19 +6376,19 @@
         <v>183.5693481338849</v>
       </c>
       <c r="H28" t="n">
-        <v>111.8985965143194</v>
+        <v>111.8985965143195</v>
       </c>
       <c r="I28" t="n">
-        <v>73.32476822280036</v>
+        <v>73.32476822280034</v>
       </c>
       <c r="J28" t="n">
-        <v>146.3385235905138</v>
+        <v>146.3385235905141</v>
       </c>
       <c r="K28" t="n">
-        <v>344.9774256618356</v>
+        <v>344.9774256618357</v>
       </c>
       <c r="L28" t="n">
-        <v>632.4436645649293</v>
+        <v>632.4436645649296</v>
       </c>
       <c r="M28" t="n">
         <v>941.600728477018</v>
@@ -6421,10 +6421,10 @@
         <v>1155.136633157433</v>
       </c>
       <c r="W28" t="n">
-        <v>946.8955572420393</v>
+        <v>946.8955572420396</v>
       </c>
       <c r="X28" t="n">
-        <v>800.0821004655891</v>
+        <v>800.0821004655893</v>
       </c>
       <c r="Y28" t="n">
         <v>660.465615443626</v>
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1866.521426036207</v>
+        <v>1866.521426036208</v>
       </c>
       <c r="C29" t="n">
-        <v>1578.735003217362</v>
+        <v>1578.735003217363</v>
       </c>
       <c r="D29" t="n">
-        <v>1301.645398732179</v>
+        <v>1301.64539873218</v>
       </c>
       <c r="E29" t="n">
-        <v>997.0332402555018</v>
+        <v>997.0332402555024</v>
       </c>
       <c r="F29" t="n">
-        <v>667.2234295874614</v>
+        <v>667.2234295874619</v>
       </c>
       <c r="G29" t="n">
-        <v>331.6647365253298</v>
+        <v>331.6647365253302</v>
       </c>
       <c r="H29" t="n">
-        <v>98.23282116053866</v>
+        <v>98.23282116053868</v>
       </c>
       <c r="I29" t="n">
-        <v>73.32476822280036</v>
+        <v>73.32476822280034</v>
       </c>
       <c r="J29" t="n">
-        <v>123.9227884626468</v>
+        <v>291.3284374829998</v>
       </c>
       <c r="K29" t="n">
-        <v>288.5328394603655</v>
+        <v>738.8042303303009</v>
       </c>
       <c r="L29" t="n">
-        <v>895.9427565459436</v>
+        <v>1346.214147415879</v>
       </c>
       <c r="M29" t="n">
-        <v>1588.409870138004</v>
+        <v>1593.662862850035</v>
       </c>
       <c r="N29" t="n">
-        <v>2277.449828034249</v>
+        <v>2282.702820746281</v>
       </c>
       <c r="O29" t="n">
-        <v>2882.903083572192</v>
+        <v>2888.156076284224</v>
       </c>
       <c r="P29" t="n">
-        <v>3361.969046610162</v>
+        <v>3367.222039322194</v>
       </c>
       <c r="Q29" t="n">
-        <v>3644.505873898004</v>
+        <v>3649.758866610036</v>
       </c>
       <c r="R29" t="n">
-        <v>3666.238411140018</v>
+        <v>3666.238411140017</v>
       </c>
       <c r="S29" t="n">
         <v>3599.243331747286</v>
       </c>
       <c r="T29" t="n">
-        <v>3467.164797909962</v>
+        <v>3467.164797909963</v>
       </c>
       <c r="U29" t="n">
-        <v>3294.67742834307</v>
+        <v>3294.677428343071</v>
       </c>
       <c r="V29" t="n">
-        <v>3044.790635121066</v>
+        <v>3044.790635121068</v>
       </c>
       <c r="W29" t="n">
-        <v>2773.198073972519</v>
+        <v>2773.19807397252</v>
       </c>
       <c r="X29" t="n">
-        <v>2480.908409833006</v>
+        <v>2480.908409833007</v>
       </c>
       <c r="Y29" t="n">
-        <v>2171.945171978762</v>
+        <v>2171.945171978763</v>
       </c>
     </row>
     <row r="30">
@@ -6531,34 +6531,34 @@
         <v>349.071339502757</v>
       </c>
       <c r="G30" t="n">
-        <v>211.8188106128992</v>
+        <v>211.8188106128991</v>
       </c>
       <c r="H30" t="n">
         <v>112.7269072731699</v>
       </c>
       <c r="I30" t="n">
-        <v>73.32476822280036</v>
+        <v>73.32476822280034</v>
       </c>
       <c r="J30" t="n">
-        <v>84.64275548952004</v>
+        <v>84.64275548952006</v>
       </c>
       <c r="K30" t="n">
-        <v>182.1418231557574</v>
+        <v>443.9624077982103</v>
       </c>
       <c r="L30" t="n">
-        <v>726.6958347708667</v>
+        <v>621.384477562895</v>
       </c>
       <c r="M30" t="n">
-        <v>1414.143903012624</v>
+        <v>1308.832545804653</v>
       </c>
       <c r="N30" t="n">
-        <v>1660.944738842511</v>
+        <v>1713.932799398988</v>
       </c>
       <c r="O30" t="n">
-        <v>2125.464067386143</v>
+        <v>1917.487552527652</v>
       </c>
       <c r="P30" t="n">
-        <v>2584.779777186191</v>
+        <v>2376.8032623277</v>
       </c>
       <c r="Q30" t="n">
         <v>2631.145881054214</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>559.9932447349534</v>
+        <v>559.9932447349536</v>
       </c>
       <c r="C31" t="n">
-        <v>472.2331559286135</v>
+        <v>472.2331559286138</v>
       </c>
       <c r="D31" t="n">
-        <v>403.2926106378449</v>
+        <v>403.2926106378451</v>
       </c>
       <c r="E31" t="n">
-        <v>336.5556111770188</v>
+        <v>336.555611177019</v>
       </c>
       <c r="F31" t="n">
-        <v>270.8417578006755</v>
+        <v>270.8417578006757</v>
       </c>
       <c r="G31" t="n">
-        <v>183.5693481338849</v>
+        <v>183.5693481338851</v>
       </c>
       <c r="H31" t="n">
         <v>111.8985965143195</v>
       </c>
       <c r="I31" t="n">
-        <v>73.32476822280036</v>
+        <v>73.32476822280034</v>
       </c>
       <c r="J31" t="n">
-        <v>146.3385235905138</v>
+        <v>146.3385235905134</v>
       </c>
       <c r="K31" t="n">
-        <v>344.9774256618355</v>
+        <v>344.9774256618351</v>
       </c>
       <c r="L31" t="n">
-        <v>632.4436645649293</v>
+        <v>632.4436645649289</v>
       </c>
       <c r="M31" t="n">
-        <v>941.6007284770177</v>
+        <v>941.6007284770174</v>
       </c>
       <c r="N31" t="n">
         <v>1250.733120208857</v>
@@ -6643,13 +6643,13 @@
         <v>1846.076031837954</v>
       </c>
       <c r="R31" t="n">
-        <v>1803.893761548168</v>
+        <v>1803.893761548167</v>
       </c>
       <c r="S31" t="n">
-        <v>1680.389026481854</v>
+        <v>1680.389026481853</v>
       </c>
       <c r="T31" t="n">
-        <v>1536.612472748892</v>
+        <v>1536.612472748891</v>
       </c>
       <c r="U31" t="n">
         <v>1328.645027241753</v>
@@ -6658,13 +6658,13 @@
         <v>1155.136633157433</v>
       </c>
       <c r="W31" t="n">
-        <v>946.8955572420396</v>
+        <v>946.8955572420393</v>
       </c>
       <c r="X31" t="n">
-        <v>800.0821004655893</v>
+        <v>800.0821004655891</v>
       </c>
       <c r="Y31" t="n">
-        <v>660.465615443626</v>
+        <v>660.4656154436262</v>
       </c>
     </row>
     <row r="32">
@@ -6677,73 +6677,73 @@
         <v>1866.521426036207</v>
       </c>
       <c r="C32" t="n">
-        <v>1578.735003217363</v>
+        <v>1578.735003217362</v>
       </c>
       <c r="D32" t="n">
-        <v>1301.64539873218</v>
+        <v>1301.645398732179</v>
       </c>
       <c r="E32" t="n">
-        <v>997.0332402555027</v>
+        <v>997.0332402555014</v>
       </c>
       <c r="F32" t="n">
-        <v>667.2234295874623</v>
+        <v>667.2234295874609</v>
       </c>
       <c r="G32" t="n">
-        <v>331.6647365253307</v>
+        <v>331.6647365253297</v>
       </c>
       <c r="H32" t="n">
-        <v>98.23282116053866</v>
+        <v>98.23282116053865</v>
       </c>
       <c r="I32" t="n">
-        <v>73.32476822280036</v>
+        <v>73.32476822280034</v>
       </c>
       <c r="J32" t="n">
-        <v>161.9610050585176</v>
+        <v>291.3284374829998</v>
       </c>
       <c r="K32" t="n">
-        <v>288.5328394603655</v>
+        <v>417.9002718848478</v>
       </c>
       <c r="L32" t="n">
-        <v>895.9427565459436</v>
+        <v>1025.310188970426</v>
       </c>
       <c r="M32" t="n">
-        <v>1588.409870138004</v>
+        <v>1717.777302562487</v>
       </c>
       <c r="N32" t="n">
-        <v>2277.449828034249</v>
+        <v>2406.817260458732</v>
       </c>
       <c r="O32" t="n">
-        <v>2882.903083572192</v>
+        <v>3012.270515996675</v>
       </c>
       <c r="P32" t="n">
-        <v>3361.969046610162</v>
+        <v>3361.969046610161</v>
       </c>
       <c r="Q32" t="n">
-        <v>3644.505873898004</v>
+        <v>3644.505873898003</v>
       </c>
       <c r="R32" t="n">
-        <v>3666.238411140018</v>
+        <v>3666.238411140017</v>
       </c>
       <c r="S32" t="n">
-        <v>3599.243331747287</v>
+        <v>3599.243331747286</v>
       </c>
       <c r="T32" t="n">
-        <v>3467.164797909963</v>
+        <v>3467.164797909962</v>
       </c>
       <c r="U32" t="n">
         <v>3294.67742834307</v>
       </c>
       <c r="V32" t="n">
-        <v>3044.790635121067</v>
+        <v>3044.790635121066</v>
       </c>
       <c r="W32" t="n">
-        <v>2773.19807397252</v>
+        <v>2773.198073972519</v>
       </c>
       <c r="X32" t="n">
-        <v>2480.908409833007</v>
+        <v>2480.908409833006</v>
       </c>
       <c r="Y32" t="n">
-        <v>2171.945171978762</v>
+        <v>2171.945171978761</v>
       </c>
     </row>
     <row r="33">
@@ -6768,31 +6768,31 @@
         <v>349.071339502757</v>
       </c>
       <c r="G33" t="n">
-        <v>211.8188106128992</v>
+        <v>211.8188106128991</v>
       </c>
       <c r="H33" t="n">
         <v>112.7269072731699</v>
       </c>
       <c r="I33" t="n">
-        <v>73.32476822280036</v>
+        <v>73.32476822280034</v>
       </c>
       <c r="J33" t="n">
         <v>209.4728804765248</v>
       </c>
       <c r="K33" t="n">
-        <v>306.9719481427621</v>
+        <v>568.792532785215</v>
       </c>
       <c r="L33" t="n">
-        <v>851.5259597578714</v>
+        <v>1113.346544400324</v>
       </c>
       <c r="M33" t="n">
-        <v>1077.926014887129</v>
+        <v>1339.746599529582</v>
       </c>
       <c r="N33" t="n">
-        <v>1799.275801317134</v>
+        <v>1586.547435359469</v>
       </c>
       <c r="O33" t="n">
-        <v>2232.76569348119</v>
+        <v>1917.487552527652</v>
       </c>
       <c r="P33" t="n">
         <v>2376.8032623277</v>
@@ -6832,40 +6832,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>559.9932447349536</v>
+        <v>559.9932447349532</v>
       </c>
       <c r="C34" t="n">
-        <v>472.2331559286137</v>
+        <v>472.2331559286134</v>
       </c>
       <c r="D34" t="n">
-        <v>403.2926106378451</v>
+        <v>403.2926106378447</v>
       </c>
       <c r="E34" t="n">
-        <v>336.555611177019</v>
+        <v>336.5556111770187</v>
       </c>
       <c r="F34" t="n">
-        <v>270.8417578006757</v>
+        <v>270.8417578006754</v>
       </c>
       <c r="G34" t="n">
-        <v>183.5693481338851</v>
+        <v>183.5693481338848</v>
       </c>
       <c r="H34" t="n">
-        <v>111.8985965143193</v>
+        <v>111.8985965143195</v>
       </c>
       <c r="I34" t="n">
-        <v>73.32476822280036</v>
+        <v>73.32476822280034</v>
       </c>
       <c r="J34" t="n">
         <v>146.3385235905138</v>
       </c>
       <c r="K34" t="n">
-        <v>344.9774256618355</v>
+        <v>344.9774256618354</v>
       </c>
       <c r="L34" t="n">
-        <v>632.4436645649288</v>
+        <v>632.4436645649293</v>
       </c>
       <c r="M34" t="n">
-        <v>941.6007284770172</v>
+        <v>941.6007284770174</v>
       </c>
       <c r="N34" t="n">
         <v>1250.733120208857</v>
@@ -6895,13 +6895,13 @@
         <v>1155.136633157433</v>
       </c>
       <c r="W34" t="n">
-        <v>946.8955572420396</v>
+        <v>946.8955572420392</v>
       </c>
       <c r="X34" t="n">
-        <v>800.0821004655893</v>
+        <v>800.082100465589</v>
       </c>
       <c r="Y34" t="n">
-        <v>660.4656154436262</v>
+        <v>660.4656154436259</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1866.521426036207</v>
+        <v>1866.521426036208</v>
       </c>
       <c r="C35" t="n">
         <v>1578.735003217363</v>
@@ -6920,16 +6920,16 @@
         <v>1301.64539873218</v>
       </c>
       <c r="E35" t="n">
-        <v>997.0332402555023</v>
+        <v>997.0332402555027</v>
       </c>
       <c r="F35" t="n">
-        <v>667.2234295874619</v>
+        <v>667.2234295874623</v>
       </c>
       <c r="G35" t="n">
-        <v>331.6647365253302</v>
+        <v>331.6647365253307</v>
       </c>
       <c r="H35" t="n">
-        <v>98.23282116053866</v>
+        <v>98.23282116053862</v>
       </c>
       <c r="I35" t="n">
         <v>73.32476822280034</v>
@@ -6938,16 +6938,16 @@
         <v>291.3284374829998</v>
       </c>
       <c r="K35" t="n">
-        <v>417.9002718848477</v>
+        <v>738.8042303303009</v>
       </c>
       <c r="L35" t="n">
-        <v>1025.310188970426</v>
+        <v>1346.214147415879</v>
       </c>
       <c r="M35" t="n">
-        <v>1717.777302562486</v>
+        <v>1593.662862850035</v>
       </c>
       <c r="N35" t="n">
-        <v>2406.817260458731</v>
+        <v>2277.449828034248</v>
       </c>
       <c r="O35" t="n">
         <v>2882.903083572191</v>
@@ -7005,7 +7005,7 @@
         <v>349.071339502757</v>
       </c>
       <c r="G36" t="n">
-        <v>211.8188106128992</v>
+        <v>211.8188106128991</v>
       </c>
       <c r="H36" t="n">
         <v>112.7269072731699</v>
@@ -7014,25 +7014,25 @@
         <v>73.32476822280034</v>
       </c>
       <c r="J36" t="n">
-        <v>84.64275548952003</v>
+        <v>209.4728804765248</v>
       </c>
       <c r="K36" t="n">
-        <v>443.9624077982102</v>
+        <v>568.792532785215</v>
       </c>
       <c r="L36" t="n">
-        <v>621.3844775628949</v>
+        <v>1113.346544400324</v>
       </c>
       <c r="M36" t="n">
-        <v>1308.832545804652</v>
+        <v>1339.746599529582</v>
       </c>
       <c r="N36" t="n">
-        <v>1921.909314257479</v>
+        <v>1586.547435359469</v>
       </c>
       <c r="O36" t="n">
-        <v>2125.464067386143</v>
+        <v>1917.487552527652</v>
       </c>
       <c r="P36" t="n">
-        <v>2584.779777186191</v>
+        <v>2376.8032623277</v>
       </c>
       <c r="Q36" t="n">
         <v>2631.145881054214</v>
@@ -7069,40 +7069,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>559.9932447349527</v>
+        <v>559.9932447349531</v>
       </c>
       <c r="C37" t="n">
-        <v>472.2331559286129</v>
+        <v>472.2331559286134</v>
       </c>
       <c r="D37" t="n">
-        <v>403.2926106378442</v>
+        <v>403.2926106378447</v>
       </c>
       <c r="E37" t="n">
-        <v>336.5556111770181</v>
+        <v>336.5556111770187</v>
       </c>
       <c r="F37" t="n">
-        <v>270.8417578006748</v>
+        <v>270.8417578006755</v>
       </c>
       <c r="G37" t="n">
-        <v>183.5693481338842</v>
+        <v>183.5693481338849</v>
       </c>
       <c r="H37" t="n">
-        <v>111.8985965143186</v>
+        <v>111.8985965143195</v>
       </c>
       <c r="I37" t="n">
         <v>73.32476822280034</v>
       </c>
       <c r="J37" t="n">
-        <v>146.3385235905138</v>
+        <v>146.3385235905139</v>
       </c>
       <c r="K37" t="n">
-        <v>344.9774256618354</v>
+        <v>344.9774256618356</v>
       </c>
       <c r="L37" t="n">
-        <v>632.4436645649292</v>
+        <v>632.4436645649296</v>
       </c>
       <c r="M37" t="n">
-        <v>941.6007284770175</v>
+        <v>941.6007284770179</v>
       </c>
       <c r="N37" t="n">
         <v>1250.733120208857</v>
@@ -7111,34 +7111,34 @@
         <v>1526.324138488816</v>
       </c>
       <c r="P37" t="n">
-        <v>1750.101957367261</v>
+        <v>1750.101957367262</v>
       </c>
       <c r="Q37" t="n">
-        <v>1846.076031837953</v>
+        <v>1846.076031837954</v>
       </c>
       <c r="R37" t="n">
-        <v>1803.893761548167</v>
+        <v>1803.893761548168</v>
       </c>
       <c r="S37" t="n">
-        <v>1680.389026481852</v>
+        <v>1680.389026481853</v>
       </c>
       <c r="T37" t="n">
-        <v>1536.61247274889</v>
+        <v>1536.612472748892</v>
       </c>
       <c r="U37" t="n">
         <v>1328.645027241752</v>
       </c>
       <c r="V37" t="n">
-        <v>1155.136633157432</v>
+        <v>1155.136633157433</v>
       </c>
       <c r="W37" t="n">
-        <v>946.8955572420385</v>
+        <v>946.8955572420389</v>
       </c>
       <c r="X37" t="n">
-        <v>800.0821004655883</v>
+        <v>800.0821004655886</v>
       </c>
       <c r="Y37" t="n">
-        <v>660.4656154436253</v>
+        <v>660.4656154436257</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1866.521426036207</v>
+        <v>1866.521426036206</v>
       </c>
       <c r="C38" t="n">
-        <v>1578.735003217363</v>
+        <v>1578.735003217362</v>
       </c>
       <c r="D38" t="n">
-        <v>1301.64539873218</v>
+        <v>1301.645398732178</v>
       </c>
       <c r="E38" t="n">
-        <v>997.0332402555023</v>
+        <v>997.0332402555009</v>
       </c>
       <c r="F38" t="n">
-        <v>667.2234295874619</v>
+        <v>667.2234295874605</v>
       </c>
       <c r="G38" t="n">
-        <v>331.6647365253302</v>
+        <v>331.6647365253297</v>
       </c>
       <c r="H38" t="n">
-        <v>98.23282116053866</v>
+        <v>98.23282116053862</v>
       </c>
       <c r="I38" t="n">
         <v>73.32476822280034</v>
@@ -7175,19 +7175,19 @@
         <v>291.3284374829998</v>
       </c>
       <c r="K38" t="n">
-        <v>738.8042303303008</v>
+        <v>738.8042303303009</v>
       </c>
       <c r="L38" t="n">
         <v>1346.214147415879</v>
       </c>
       <c r="M38" t="n">
-        <v>2038.681261007939</v>
+        <v>2038.68126100794</v>
       </c>
       <c r="N38" t="n">
-        <v>2676.17454472638</v>
+        <v>2299.182365276262</v>
       </c>
       <c r="O38" t="n">
-        <v>2904.635620814206</v>
+        <v>2904.635620814205</v>
       </c>
       <c r="P38" t="n">
         <v>3383.701583852175</v>
@@ -7202,22 +7202,22 @@
         <v>3599.243331747286</v>
       </c>
       <c r="T38" t="n">
-        <v>3467.164797909962</v>
+        <v>3467.164797909961</v>
       </c>
       <c r="U38" t="n">
         <v>3294.67742834307</v>
       </c>
       <c r="V38" t="n">
-        <v>3044.790635121067</v>
+        <v>3044.790635121066</v>
       </c>
       <c r="W38" t="n">
-        <v>2773.19807397252</v>
+        <v>2773.198073972519</v>
       </c>
       <c r="X38" t="n">
-        <v>2480.908409833007</v>
+        <v>2480.908409833006</v>
       </c>
       <c r="Y38" t="n">
-        <v>2171.945171978762</v>
+        <v>2171.945171978761</v>
       </c>
     </row>
     <row r="39">
@@ -7242,7 +7242,7 @@
         <v>349.071339502757</v>
       </c>
       <c r="G39" t="n">
-        <v>211.8188106128992</v>
+        <v>211.8188106128991</v>
       </c>
       <c r="H39" t="n">
         <v>112.7269072731699</v>
@@ -7254,16 +7254,16 @@
         <v>209.4728804765248</v>
       </c>
       <c r="K39" t="n">
-        <v>306.9719481427621</v>
+        <v>568.792532785215</v>
       </c>
       <c r="L39" t="n">
-        <v>484.3940179074468</v>
+        <v>1113.346544400324</v>
       </c>
       <c r="M39" t="n">
-        <v>1171.842086149205</v>
+        <v>1339.746599529582</v>
       </c>
       <c r="N39" t="n">
-        <v>1713.932799398988</v>
+        <v>1586.547435359469</v>
       </c>
       <c r="O39" t="n">
         <v>1917.487552527652</v>
@@ -7306,43 +7306,43 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>559.993244734953</v>
+        <v>559.9932447349531</v>
       </c>
       <c r="C40" t="n">
-        <v>472.2331559286132</v>
+        <v>472.2331559286134</v>
       </c>
       <c r="D40" t="n">
-        <v>403.2926106378445</v>
+        <v>403.2926106378447</v>
       </c>
       <c r="E40" t="n">
-        <v>336.5556111770185</v>
+        <v>336.5556111770188</v>
       </c>
       <c r="F40" t="n">
-        <v>270.8417578006752</v>
+        <v>270.8417578006755</v>
       </c>
       <c r="G40" t="n">
-        <v>183.5693481338845</v>
+        <v>183.5693481338849</v>
       </c>
       <c r="H40" t="n">
-        <v>111.898596514319</v>
+        <v>111.8985965143195</v>
       </c>
       <c r="I40" t="n">
         <v>73.32476822280034</v>
       </c>
       <c r="J40" t="n">
-        <v>146.3385235905135</v>
+        <v>146.3385235905139</v>
       </c>
       <c r="K40" t="n">
-        <v>344.9774256618351</v>
+        <v>344.9774256618355</v>
       </c>
       <c r="L40" t="n">
-        <v>632.4436645649289</v>
+        <v>632.4436645649287</v>
       </c>
       <c r="M40" t="n">
-        <v>941.6007284770172</v>
+        <v>941.6007284770171</v>
       </c>
       <c r="N40" t="n">
-        <v>1250.733120208857</v>
+        <v>1250.733120208856</v>
       </c>
       <c r="O40" t="n">
         <v>1526.324138488816</v>
@@ -7369,10 +7369,10 @@
         <v>1155.136633157432</v>
       </c>
       <c r="W40" t="n">
-        <v>946.895557242039</v>
+        <v>946.8955572420389</v>
       </c>
       <c r="X40" t="n">
-        <v>800.0821004655887</v>
+        <v>800.0821004655886</v>
       </c>
       <c r="Y40" t="n">
         <v>660.4656154436257</v>
@@ -7385,52 +7385,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1866.521426036205</v>
+        <v>1866.521426036207</v>
       </c>
       <c r="C41" t="n">
-        <v>1578.735003217361</v>
+        <v>1578.735003217363</v>
       </c>
       <c r="D41" t="n">
-        <v>1301.645398732178</v>
+        <v>1301.64539873218</v>
       </c>
       <c r="E41" t="n">
-        <v>997.0332402555009</v>
+        <v>997.0332402555023</v>
       </c>
       <c r="F41" t="n">
-        <v>667.2234295874605</v>
+        <v>667.2234295874619</v>
       </c>
       <c r="G41" t="n">
-        <v>331.6647365253296</v>
+        <v>331.6647365253302</v>
       </c>
       <c r="H41" t="n">
-        <v>98.23282116053861</v>
+        <v>98.23282116053865</v>
       </c>
       <c r="I41" t="n">
         <v>73.32476822280034</v>
       </c>
       <c r="J41" t="n">
-        <v>291.3284374829998</v>
+        <v>123.9227884626468</v>
       </c>
       <c r="K41" t="n">
-        <v>738.8042303303008</v>
+        <v>571.3985813099479</v>
       </c>
       <c r="L41" t="n">
-        <v>1340.961154703847</v>
+        <v>1178.808498395526</v>
       </c>
       <c r="M41" t="n">
-        <v>1588.409870138003</v>
+        <v>1871.275611987586</v>
       </c>
       <c r="N41" t="n">
-        <v>2277.449828034248</v>
+        <v>2560.315569883832</v>
       </c>
       <c r="O41" t="n">
-        <v>2882.903083572191</v>
+        <v>3165.768825421775</v>
       </c>
       <c r="P41" t="n">
-        <v>3361.969046610161</v>
+        <v>3383.701583852175</v>
       </c>
       <c r="Q41" t="n">
-        <v>3644.505873898003</v>
+        <v>3666.238411140017</v>
       </c>
       <c r="R41" t="n">
         <v>3666.238411140017</v>
@@ -7442,19 +7442,19 @@
         <v>3467.164797909962</v>
       </c>
       <c r="U41" t="n">
-        <v>3294.677428343069</v>
+        <v>3294.67742834307</v>
       </c>
       <c r="V41" t="n">
-        <v>3044.790635121065</v>
+        <v>3044.790635121067</v>
       </c>
       <c r="W41" t="n">
-        <v>2773.198073972518</v>
+        <v>2773.19807397252</v>
       </c>
       <c r="X41" t="n">
-        <v>2480.908409833005</v>
+        <v>2480.908409833007</v>
       </c>
       <c r="Y41" t="n">
-        <v>2171.94517197876</v>
+        <v>2171.945171978762</v>
       </c>
     </row>
     <row r="42">
@@ -7479,7 +7479,7 @@
         <v>349.071339502757</v>
       </c>
       <c r="G42" t="n">
-        <v>211.8188106128992</v>
+        <v>211.8188106128991</v>
       </c>
       <c r="H42" t="n">
         <v>112.7269072731699</v>
@@ -7488,19 +7488,19 @@
         <v>73.32476822280034</v>
       </c>
       <c r="J42" t="n">
-        <v>84.64275548952003</v>
+        <v>209.4728804765248</v>
       </c>
       <c r="K42" t="n">
-        <v>182.1418231557574</v>
+        <v>568.792532785215</v>
       </c>
       <c r="L42" t="n">
-        <v>726.6958347708667</v>
+        <v>1113.346544400324</v>
       </c>
       <c r="M42" t="n">
-        <v>1077.208267485139</v>
+        <v>1339.746599529582</v>
       </c>
       <c r="N42" t="n">
-        <v>1324.009103315026</v>
+        <v>1586.547435359469</v>
       </c>
       <c r="O42" t="n">
         <v>1917.487552527652</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>559.9932447349531</v>
+        <v>559.9932447349534</v>
       </c>
       <c r="C43" t="n">
-        <v>472.2331559286133</v>
+        <v>472.2331559286135</v>
       </c>
       <c r="D43" t="n">
-        <v>403.2926106378447</v>
+        <v>403.2926106378449</v>
       </c>
       <c r="E43" t="n">
-        <v>336.5556111770187</v>
+        <v>336.5556111770188</v>
       </c>
       <c r="F43" t="n">
         <v>270.8417578006755</v>
@@ -7567,52 +7567,52 @@
         <v>73.32476822280034</v>
       </c>
       <c r="J43" t="n">
-        <v>146.3385235905139</v>
+        <v>146.3385235905135</v>
       </c>
       <c r="K43" t="n">
-        <v>344.9774256618356</v>
+        <v>344.9774256618351</v>
       </c>
       <c r="L43" t="n">
-        <v>632.4436645649296</v>
+        <v>632.443664564929</v>
       </c>
       <c r="M43" t="n">
-        <v>941.6007284770169</v>
+        <v>941.6007284770175</v>
       </c>
       <c r="N43" t="n">
-        <v>1250.733120208856</v>
+        <v>1250.733120208857</v>
       </c>
       <c r="O43" t="n">
-        <v>1526.324138488816</v>
+        <v>1526.324138488817</v>
       </c>
       <c r="P43" t="n">
         <v>1750.101957367262</v>
       </c>
       <c r="Q43" t="n">
-        <v>1846.076031837954</v>
+        <v>1846.076031837955</v>
       </c>
       <c r="R43" t="n">
-        <v>1803.893761548167</v>
+        <v>1803.893761548168</v>
       </c>
       <c r="S43" t="n">
         <v>1680.389026481853</v>
       </c>
       <c r="T43" t="n">
-        <v>1536.612472748891</v>
+        <v>1536.612472748892</v>
       </c>
       <c r="U43" t="n">
-        <v>1328.645027241752</v>
+        <v>1328.645027241753</v>
       </c>
       <c r="V43" t="n">
-        <v>1155.136633157432</v>
+        <v>1155.136633157433</v>
       </c>
       <c r="W43" t="n">
-        <v>946.8955572420389</v>
+        <v>946.8955572420393</v>
       </c>
       <c r="X43" t="n">
-        <v>800.0821004655886</v>
+        <v>800.0821004655891</v>
       </c>
       <c r="Y43" t="n">
-        <v>660.4656154436257</v>
+        <v>660.465615443626</v>
       </c>
     </row>
     <row r="44">
@@ -7625,22 +7625,22 @@
         <v>1866.521426036207</v>
       </c>
       <c r="C44" t="n">
-        <v>1578.735003217363</v>
+        <v>1578.735003217362</v>
       </c>
       <c r="D44" t="n">
-        <v>1301.64539873218</v>
+        <v>1301.645398732179</v>
       </c>
       <c r="E44" t="n">
-        <v>997.0332402555023</v>
+        <v>997.0332402555018</v>
       </c>
       <c r="F44" t="n">
-        <v>667.2234295874619</v>
+        <v>667.2234295874614</v>
       </c>
       <c r="G44" t="n">
-        <v>331.6647365253302</v>
+        <v>331.6647365253298</v>
       </c>
       <c r="H44" t="n">
-        <v>98.23282116053866</v>
+        <v>98.23282116053859</v>
       </c>
       <c r="I44" t="n">
         <v>73.32476822280034</v>
@@ -7649,25 +7649,25 @@
         <v>291.3284374829998</v>
       </c>
       <c r="K44" t="n">
-        <v>738.8042303303008</v>
+        <v>738.8042303303009</v>
       </c>
       <c r="L44" t="n">
         <v>1346.214147415879</v>
       </c>
       <c r="M44" t="n">
-        <v>1965.402049588121</v>
+        <v>2038.68126100794</v>
       </c>
       <c r="N44" t="n">
-        <v>2654.442007484366</v>
+        <v>2727.721218904185</v>
       </c>
       <c r="O44" t="n">
-        <v>2882.903083572191</v>
+        <v>3223.216341903973</v>
       </c>
       <c r="P44" t="n">
-        <v>3361.969046610161</v>
+        <v>3383.701583852175</v>
       </c>
       <c r="Q44" t="n">
-        <v>3644.505873898003</v>
+        <v>3666.238411140017</v>
       </c>
       <c r="R44" t="n">
         <v>3666.238411140017</v>
@@ -7676,22 +7676,22 @@
         <v>3599.243331747286</v>
       </c>
       <c r="T44" t="n">
-        <v>3467.164797909962</v>
+        <v>3467.164797909961</v>
       </c>
       <c r="U44" t="n">
         <v>3294.67742834307</v>
       </c>
       <c r="V44" t="n">
-        <v>3044.790635121067</v>
+        <v>3044.790635121066</v>
       </c>
       <c r="W44" t="n">
-        <v>2773.19807397252</v>
+        <v>2773.198073972519</v>
       </c>
       <c r="X44" t="n">
-        <v>2480.908409833007</v>
+        <v>2480.908409833006</v>
       </c>
       <c r="Y44" t="n">
-        <v>2171.945171978762</v>
+        <v>2171.945171978761</v>
       </c>
     </row>
     <row r="45">
@@ -7716,7 +7716,7 @@
         <v>349.071339502757</v>
       </c>
       <c r="G45" t="n">
-        <v>211.8188106128992</v>
+        <v>211.8188106128991</v>
       </c>
       <c r="H45" t="n">
         <v>112.7269072731699</v>
@@ -7725,25 +7725,25 @@
         <v>73.32476822280034</v>
       </c>
       <c r="J45" t="n">
-        <v>84.64275548952003</v>
+        <v>209.4728804765248</v>
       </c>
       <c r="K45" t="n">
-        <v>182.1418231557574</v>
+        <v>568.792532785215</v>
       </c>
       <c r="L45" t="n">
-        <v>438.4659044552917</v>
+        <v>1113.346544400324</v>
       </c>
       <c r="M45" t="n">
-        <v>1125.913972697049</v>
+        <v>1339.746599529582</v>
       </c>
       <c r="N45" t="n">
-        <v>1847.263759127055</v>
+        <v>1586.547435359469</v>
       </c>
       <c r="O45" t="n">
-        <v>2440.74220833968</v>
+        <v>1917.487552527652</v>
       </c>
       <c r="P45" t="n">
-        <v>2584.779777186191</v>
+        <v>2376.8032623277</v>
       </c>
       <c r="Q45" t="n">
         <v>2631.145881054214</v>
@@ -7786,16 +7786,16 @@
         <v>472.2331559286132</v>
       </c>
       <c r="D46" t="n">
-        <v>403.2926106378445</v>
+        <v>403.2926106378446</v>
       </c>
       <c r="E46" t="n">
-        <v>336.5556111770185</v>
+        <v>336.5556111770186</v>
       </c>
       <c r="F46" t="n">
-        <v>270.8417578006752</v>
+        <v>270.8417578006754</v>
       </c>
       <c r="G46" t="n">
-        <v>183.5693481338845</v>
+        <v>183.5693481338849</v>
       </c>
       <c r="H46" t="n">
         <v>111.8985965143195</v>
@@ -7804,25 +7804,25 @@
         <v>73.32476822280034</v>
       </c>
       <c r="J46" t="n">
-        <v>146.3385235905138</v>
+        <v>146.3385235905139</v>
       </c>
       <c r="K46" t="n">
-        <v>344.9774256618355</v>
+        <v>344.9774256618343</v>
       </c>
       <c r="L46" t="n">
-        <v>632.4436645649293</v>
+        <v>632.4436645649282</v>
       </c>
       <c r="M46" t="n">
-        <v>941.6007284770177</v>
+        <v>941.6007284770167</v>
       </c>
       <c r="N46" t="n">
         <v>1250.733120208856</v>
       </c>
       <c r="O46" t="n">
-        <v>1526.324138488816</v>
+        <v>1526.324138488815</v>
       </c>
       <c r="P46" t="n">
-        <v>1750.101957367262</v>
+        <v>1750.101957367261</v>
       </c>
       <c r="Q46" t="n">
         <v>1846.076031837954</v>
@@ -7831,7 +7831,7 @@
         <v>1803.893761548167</v>
       </c>
       <c r="S46" t="n">
-        <v>1680.389026481853</v>
+        <v>1680.389026481852</v>
       </c>
       <c r="T46" t="n">
         <v>1536.612472748891</v>
@@ -7843,13 +7843,13 @@
         <v>1155.136633157432</v>
       </c>
       <c r="W46" t="n">
-        <v>946.8955572420384</v>
+        <v>946.8955572420386</v>
       </c>
       <c r="X46" t="n">
-        <v>800.0821004655882</v>
+        <v>800.0821004655885</v>
       </c>
       <c r="Y46" t="n">
-        <v>660.4656154436257</v>
+        <v>660.4656154436256</v>
       </c>
     </row>
   </sheetData>
@@ -8690,10 +8690,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>266.7040302025947</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>125.952783701759</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8708,10 +8708,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>43.76436205276619</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,25 +8769,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>71.62533038926549</v>
       </c>
       <c r="L12" t="n">
-        <v>96.30081783102389</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>423.8184615533933</v>
       </c>
       <c r="N12" t="n">
-        <v>403.2116123608383</v>
+        <v>403.2116123608382</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8927,22 +8927,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>128.4945386662608</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>402.5571885181424</v>
       </c>
       <c r="N14" t="n">
-        <v>393.8523528674103</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>134.8526699173109</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9003,22 +9003,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>95.40989568799705</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>423.8184615533933</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>105.6501109151326</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9161,13 +9161,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9176,16 +9176,16 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>148.7046480745504</v>
+        <v>206.9063146132387</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>43.76436205276619</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,28 +9240,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>61.62879560382279</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>403.2116123608383</v>
+        <v>105.6501109151326</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9398,28 +9398,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>41.9482925072582</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>402.5571885181423</v>
       </c>
       <c r="N20" t="n">
-        <v>393.8523528674103</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>32.63203228729307</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
         <v>43.76436205276619</v>
@@ -9477,28 +9477,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>96.30081783102412</v>
       </c>
       <c r="M21" t="n">
-        <v>423.8184615533933</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>403.2116123608383</v>
+        <v>403.2116123608382</v>
       </c>
       <c r="O21" t="n">
-        <v>220.738339702945</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9638,22 +9638,22 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>70.89408816868394</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>428.4312992849744</v>
+        <v>428.4312992849746</v>
       </c>
       <c r="N23" t="n">
-        <v>168.8218436314435</v>
+        <v>419.7264636342426</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9717,25 +9717,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>449.6925723202253</v>
+        <v>128.6720848884028</v>
       </c>
       <c r="N24" t="n">
-        <v>429.0857231276703</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>42.89908282887231</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9872,13 +9872,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>60.37449882614547</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>197.108676293262</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
@@ -9893,10 +9893,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>43.76436205276619</v>
+        <v>43.76436205276622</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,7 +9951,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9963,16 +9963,16 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>338.7493726242524</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>93.88351452519575</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10109,16 +10109,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>38.4224410059301</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>60.41036662850458</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10191,25 +10191,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>159.8984017822712</v>
       </c>
       <c r="O30" t="n">
-        <v>263.60058122724</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>38.42244100593008</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10364,7 +10364,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>191.1245340053375</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
@@ -10428,7 +10428,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10437,13 +10437,13 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>232.2577161973657</v>
+        <v>128.6720848884033</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10586,19 +10586,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>432.040871167507</v>
       </c>
       <c r="O35" t="n">
-        <v>250.126007096601</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10662,28 +10662,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>369.9756895181207</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>128.6720848884033</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10832,10 +10832,10 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>385.2795767576364</v>
+        <v>4.479395494890127</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>43.76436205276622</v>
+        <v>43.76436205276619</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,19 +10902,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>298.2726034544412</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>128.6720848884033</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11057,16 +11057,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>412.3551613059737</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11075,13 +11075,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>58.02779442646224</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>43.76436205276619</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,22 +11136,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>125.3660379646612</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>128.6720848884033</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11303,22 +11303,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>375.4941280182685</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>269.7313605171338</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>43.76436205276619</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,28 +11373,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>79.69900155035322</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>128.6720848884033</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23258,19 +23258,19 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>301.0107215343887</v>
+        <v>301.0107215343888</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>317.668199835643</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>337.8186285452602</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>20.1504287096193</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>305.4689304418502</v>
+        <v>305.4689304418503</v>
       </c>
       <c r="Y11" t="n">
         <v>321.9757684194348</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>16.95446178065716</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>102.984650862009</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23428,10 +23428,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>102.5018485138553</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>3.457561173775957</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23467,10 +23467,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>158.4409511393646</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>221.9899339958002</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>161.4474851524183</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23492,10 +23492,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>318.4716714268617</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>301.0107215343887</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23504,10 +23504,10 @@
         <v>317.668199835643</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>142.258797329085</v>
       </c>
       <c r="G14" t="n">
-        <v>36.18235176321281</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23549,19 +23549,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>186.8646588149558</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>284.9787984807942</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>305.4689304418503</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>321.9757684194348</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>102.9846508620091</v>
+        <v>10.79278317276143</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>82.1717924099504</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>102.5018485138553</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>54.29025295233654</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>57.86261053062137</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>158.4409511393646</v>
+        <v>158.4409511393645</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>40.29105189761731</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23738,7 +23738,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>100.4122490639225</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23792,7 +23792,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>100.4122490639218</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23978,7 +23978,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>33.91667080158938</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24020,13 +24020,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>66.49557826233236</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>100.4122490639224</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1168124.193683139</v>
+        <v>1168124.193683138</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1326248.872754657</v>
+        <v>1326248.872754656</v>
       </c>
     </row>
     <row r="8">
@@ -26317,16 +26317,16 @@
         <v>163855.2677434077</v>
       </c>
       <c r="D2" t="n">
-        <v>163855.2677434077</v>
+        <v>163855.2677434076</v>
       </c>
       <c r="E2" t="n">
+        <v>142206.6065714341</v>
+      </c>
+      <c r="F2" t="n">
         <v>142206.6065714342</v>
       </c>
-      <c r="F2" t="n">
-        <v>142206.6065714341</v>
-      </c>
       <c r="G2" t="n">
-        <v>162609.7909677589</v>
+        <v>162609.790967759</v>
       </c>
       <c r="H2" t="n">
         <v>162609.7909677589</v>
@@ -26344,10 +26344,10 @@
         <v>164208.3539728567</v>
       </c>
       <c r="M2" t="n">
-        <v>164208.3539728566</v>
+        <v>164208.3539728567</v>
       </c>
       <c r="N2" t="n">
-        <v>164208.3539728566</v>
+        <v>164208.3539728568</v>
       </c>
       <c r="O2" t="n">
         <v>164208.3539728567</v>
@@ -26375,37 +26375,37 @@
         <v>792873.2514315097</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>64291.46654428112</v>
+        <v>64291.46654428107</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>6880.469409226737</v>
+        <v>6880.469409226827</v>
       </c>
       <c r="J3" t="n">
-        <v>62318.39567828069</v>
+        <v>62318.39567828057</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>64291.46654428112</v>
+        <v>64291.46654428109</v>
       </c>
       <c r="M3" t="n">
-        <v>162606.9521943978</v>
+        <v>162606.9521943979</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>4.547473508864641e-11</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26436,13 +26436,13 @@
         <v>189547.7028295032</v>
       </c>
       <c r="I4" t="n">
-        <v>192414.2210230132</v>
+        <v>192414.2210230131</v>
       </c>
       <c r="J4" t="n">
         <v>177002.7601002274</v>
       </c>
       <c r="K4" t="n">
-        <v>177002.7601002274</v>
+        <v>177002.7601002273</v>
       </c>
       <c r="L4" t="n">
         <v>177002.7601002274</v>
@@ -26454,7 +26454,7 @@
         <v>177002.7601002274</v>
       </c>
       <c r="O4" t="n">
-        <v>177002.7601002274</v>
+        <v>177002.7601002273</v>
       </c>
       <c r="P4" t="n">
         <v>177002.7601002274</v>
@@ -26476,28 +26476,28 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>59907.62218574651</v>
+        <v>59907.6221857465</v>
       </c>
       <c r="F5" t="n">
         <v>59907.62218574651</v>
       </c>
       <c r="G5" t="n">
-        <v>66663.77131188547</v>
+        <v>66663.77131188546</v>
       </c>
       <c r="H5" t="n">
-        <v>66663.77131188547</v>
+        <v>66663.77131188546</v>
       </c>
       <c r="I5" t="n">
-        <v>68236.91724650885</v>
+        <v>68236.91724650886</v>
       </c>
       <c r="J5" t="n">
-        <v>77315.81130726748</v>
+        <v>77315.81130726746</v>
       </c>
       <c r="K5" t="n">
-        <v>77315.81130726748</v>
+        <v>77315.81130726746</v>
       </c>
       <c r="L5" t="n">
-        <v>77315.81130726748</v>
+        <v>77315.81130726746</v>
       </c>
       <c r="M5" t="n">
         <v>77315.81130726746</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-289920.1011461236</v>
+        <v>-289924.5147239918</v>
       </c>
       <c r="C6" t="n">
-        <v>-289920.1011461236</v>
+        <v>-289924.5147239917</v>
       </c>
       <c r="D6" t="n">
-        <v>-289920.1011461235</v>
+        <v>-289924.5147239917</v>
       </c>
       <c r="E6" t="n">
-        <v>-842051.2492437981</v>
+        <v>-842326.271086316</v>
       </c>
       <c r="F6" t="n">
-        <v>-49177.9978122883</v>
+        <v>-49453.01965480617</v>
       </c>
       <c r="G6" t="n">
-        <v>-157893.1497179109</v>
+        <v>-157913.1317554745</v>
       </c>
       <c r="H6" t="n">
-        <v>-93601.68317362972</v>
+        <v>-93621.66521119345</v>
       </c>
       <c r="I6" t="n">
-        <v>-103323.2537058922</v>
+        <v>-103323.2537058923</v>
       </c>
       <c r="J6" t="n">
-        <v>-152428.6131129189</v>
+        <v>-152428.6131129188</v>
       </c>
       <c r="K6" t="n">
-        <v>-90110.21743463819</v>
+        <v>-90110.21743463809</v>
       </c>
       <c r="L6" t="n">
         <v>-154401.6839789193</v>
       </c>
       <c r="M6" t="n">
-        <v>-252717.169629036</v>
+        <v>-252717.1696290361</v>
       </c>
       <c r="N6" t="n">
-        <v>-90110.21743463821</v>
+        <v>-90110.21743463806</v>
       </c>
       <c r="O6" t="n">
-        <v>-90110.21743463824</v>
+        <v>-90110.21743463806</v>
       </c>
       <c r="P6" t="n">
-        <v>-90110.21743463809</v>
+        <v>-90110.21743463818</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
+        <v>64.26217023661877</v>
+      </c>
+      <c r="F2" t="n">
         <v>64.26217023661883</v>
-      </c>
-      <c r="F2" t="n">
-        <v>64.26217023661877</v>
       </c>
       <c r="G2" t="n">
         <v>144.6265034169702</v>
@@ -26707,25 +26707,25 @@
         <v>144.6265034169702</v>
       </c>
       <c r="J2" t="n">
+        <v>80.36433318035141</v>
+      </c>
+      <c r="K2" t="n">
         <v>80.36433318035137</v>
       </c>
-      <c r="K2" t="n">
-        <v>80.36433318035141</v>
-      </c>
       <c r="L2" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="M2" t="n">
+        <v>80.36433318035142</v>
+      </c>
+      <c r="N2" t="n">
+        <v>80.36433318035142</v>
+      </c>
+      <c r="O2" t="n">
         <v>80.36433318035139</v>
       </c>
-      <c r="N2" t="n">
-        <v>80.36433318035139</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>80.36433318035145</v>
-      </c>
-      <c r="P2" t="n">
-        <v>80.36433318035139</v>
       </c>
     </row>
     <row r="3">
@@ -26759,25 +26759,25 @@
         <v>680.4054280642313</v>
       </c>
       <c r="J3" t="n">
+        <v>680.4054280642312</v>
+      </c>
+      <c r="K3" t="n">
         <v>680.4054280642313</v>
       </c>
-      <c r="K3" t="n">
-        <v>680.4054280642312</v>
-      </c>
       <c r="L3" t="n">
-        <v>680.4054280642312</v>
+        <v>680.4054280642313</v>
       </c>
       <c r="M3" t="n">
-        <v>680.4054280642312</v>
+        <v>680.4054280642313</v>
       </c>
       <c r="N3" t="n">
-        <v>680.4054280642312</v>
+        <v>680.4054280642313</v>
       </c>
       <c r="O3" t="n">
-        <v>680.4054280642312</v>
+        <v>680.4054280642313</v>
       </c>
       <c r="P3" t="n">
-        <v>680.4054280642312</v>
+        <v>680.4054280642313</v>
       </c>
     </row>
     <row r="4">
@@ -26796,28 +26796,28 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>652.505385926381</v>
+        <v>652.5053859263809</v>
       </c>
       <c r="F4" t="n">
         <v>652.505385926381</v>
       </c>
       <c r="G4" t="n">
-        <v>652.505385926381</v>
+        <v>652.5053859263809</v>
       </c>
       <c r="H4" t="n">
-        <v>652.505385926381</v>
+        <v>652.5053859263809</v>
       </c>
       <c r="I4" t="n">
-        <v>678.379496693213</v>
+        <v>678.3794966932132</v>
       </c>
       <c r="J4" t="n">
-        <v>916.5596027850045</v>
+        <v>916.5596027850042</v>
       </c>
       <c r="K4" t="n">
-        <v>916.5596027850045</v>
+        <v>916.5596027850044</v>
       </c>
       <c r="L4" t="n">
-        <v>916.5596027850045</v>
+        <v>916.5596027850042</v>
       </c>
       <c r="M4" t="n">
         <v>916.5596027850042</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>64.26217023661883</v>
+        <v>64.26217023661877</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035134</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,19 +26935,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035137</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
+        <v>-2.842170943040401e-14</v>
+      </c>
+      <c r="P2" t="n">
         <v>5.684341886080801e-14</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>652.505385926381</v>
+        <v>652.5053859263809</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>25.87411076683202</v>
+        <v>25.87411076683236</v>
       </c>
       <c r="J4" t="n">
-        <v>238.1801060917915</v>
+        <v>238.180106091791</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>652.5053859263808</v>
+        <v>652.5053859263809</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>64.26217023661883</v>
+        <v>64.26217023661877</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035134</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>652.505385926381</v>
+        <v>652.5053859263809</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>64.26217023661883</v>
+        <v>64.26217023661877</v>
       </c>
       <c r="C11" t="n">
-        <v>64.26217023661883</v>
+        <v>64.26217023661877</v>
       </c>
       <c r="D11" t="n">
-        <v>64.26217023661883</v>
+        <v>64.26217023661877</v>
       </c>
       <c r="E11" t="n">
-        <v>64.26217023661883</v>
+        <v>64.26217023661877</v>
       </c>
       <c r="F11" t="n">
-        <v>64.26217023661883</v>
+        <v>64.26217023661877</v>
       </c>
       <c r="G11" t="n">
-        <v>64.26217023661883</v>
+        <v>64.26217023661877</v>
       </c>
       <c r="H11" t="n">
-        <v>64.26217023661883</v>
+        <v>64.26217023661877</v>
       </c>
       <c r="I11" t="n">
-        <v>64.26217023661883</v>
+        <v>64.26217023661877</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>64.26217023661883</v>
+        <v>64.26217023661877</v>
       </c>
       <c r="T11" t="n">
-        <v>64.26217023661883</v>
+        <v>64.26217023661877</v>
       </c>
       <c r="U11" t="n">
-        <v>64.26217023661883</v>
+        <v>64.26217023661877</v>
       </c>
       <c r="V11" t="n">
-        <v>64.26217023661883</v>
+        <v>64.26217023661877</v>
       </c>
       <c r="W11" t="n">
-        <v>64.26217023661883</v>
+        <v>64.26217023661877</v>
       </c>
       <c r="X11" t="n">
-        <v>64.26217023661883</v>
+        <v>64.26217023661877</v>
       </c>
       <c r="Y11" t="n">
-        <v>64.26217023661883</v>
+        <v>64.26217023661877</v>
       </c>
     </row>
     <row r="12">
@@ -28217,7 +28217,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>3.694822225952521e-13</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>64.26217023661883</v>
+        <v>64.26217023661877</v>
       </c>
       <c r="C13" t="n">
-        <v>64.26217023661883</v>
+        <v>64.26217023661877</v>
       </c>
       <c r="D13" t="n">
-        <v>64.26217023661883</v>
+        <v>64.26217023661877</v>
       </c>
       <c r="E13" t="n">
-        <v>64.26217023661883</v>
+        <v>64.26217023661877</v>
       </c>
       <c r="F13" t="n">
-        <v>64.26217023661883</v>
+        <v>64.26217023661877</v>
       </c>
       <c r="G13" t="n">
-        <v>64.26217023661883</v>
+        <v>64.26217023661877</v>
       </c>
       <c r="H13" t="n">
-        <v>64.26217023661883</v>
+        <v>64.26217023661877</v>
       </c>
       <c r="I13" t="n">
-        <v>64.26217023661883</v>
+        <v>64.26217023661877</v>
       </c>
       <c r="J13" t="n">
-        <v>64.26217023661883</v>
+        <v>64.26217023661877</v>
       </c>
       <c r="K13" t="n">
-        <v>64.26217023661883</v>
+        <v>64.26217023661877</v>
       </c>
       <c r="L13" t="n">
-        <v>64.26217023661883</v>
+        <v>64.26217023661877</v>
       </c>
       <c r="M13" t="n">
-        <v>64.26217023661883</v>
+        <v>64.26217023661877</v>
       </c>
       <c r="N13" t="n">
-        <v>64.26217023661883</v>
+        <v>64.26217023661877</v>
       </c>
       <c r="O13" t="n">
-        <v>64.26217023661883</v>
+        <v>64.26217023661877</v>
       </c>
       <c r="P13" t="n">
-        <v>64.26217023661883</v>
+        <v>64.26217023661877</v>
       </c>
       <c r="Q13" t="n">
-        <v>64.26217023661883</v>
+        <v>64.26217023661877</v>
       </c>
       <c r="R13" t="n">
-        <v>64.26217023661883</v>
+        <v>64.26217023661877</v>
       </c>
       <c r="S13" t="n">
-        <v>64.26217023661883</v>
+        <v>64.26217023661877</v>
       </c>
       <c r="T13" t="n">
-        <v>64.26217023661883</v>
+        <v>64.26217023661877</v>
       </c>
       <c r="U13" t="n">
-        <v>64.26217023661883</v>
+        <v>64.26217023661877</v>
       </c>
       <c r="V13" t="n">
-        <v>64.26217023661883</v>
+        <v>64.26217023661877</v>
       </c>
       <c r="W13" t="n">
-        <v>64.26217023661883</v>
+        <v>64.26217023661877</v>
       </c>
       <c r="X13" t="n">
-        <v>64.26217023661883</v>
+        <v>64.26217023661877</v>
       </c>
       <c r="Y13" t="n">
-        <v>64.26217023661883</v>
+        <v>64.26217023661877</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>64.26217023661877</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="C14" t="n">
-        <v>64.26217023661877</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="D14" t="n">
-        <v>64.26217023661877</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="E14" t="n">
-        <v>64.26217023661877</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="F14" t="n">
-        <v>64.26217023661877</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="G14" t="n">
-        <v>64.26217023661877</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="H14" t="n">
-        <v>64.26217023661877</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="I14" t="n">
-        <v>64.26217023661877</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>64.26217023661877</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="T14" t="n">
-        <v>64.26217023661877</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="U14" t="n">
-        <v>64.26217023661877</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="V14" t="n">
-        <v>64.26217023661877</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="W14" t="n">
-        <v>64.26217023661877</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="X14" t="n">
-        <v>64.26217023661877</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="Y14" t="n">
-        <v>64.26217023661877</v>
+        <v>64.26217023661883</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>64.26217023661877</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="C16" t="n">
-        <v>64.26217023661877</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="D16" t="n">
-        <v>64.26217023661877</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="E16" t="n">
-        <v>64.26217023661877</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="F16" t="n">
-        <v>64.26217023661877</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="G16" t="n">
-        <v>64.26217023661877</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="H16" t="n">
-        <v>64.26217023661877</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="I16" t="n">
-        <v>64.26217023661877</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="J16" t="n">
-        <v>64.26217023661877</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="K16" t="n">
-        <v>64.26217023661877</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="L16" t="n">
-        <v>64.26217023661877</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="M16" t="n">
-        <v>64.26217023661877</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="N16" t="n">
-        <v>64.26217023661877</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="O16" t="n">
-        <v>64.26217023661877</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="P16" t="n">
-        <v>64.26217023661877</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.26217023661877</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="R16" t="n">
-        <v>64.26217023661877</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="S16" t="n">
-        <v>64.26217023661877</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="T16" t="n">
-        <v>64.26217023661877</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="U16" t="n">
-        <v>64.26217023661877</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="V16" t="n">
-        <v>64.26217023661877</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="W16" t="n">
-        <v>64.26217023661877</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="X16" t="n">
-        <v>64.26217023661877</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="Y16" t="n">
-        <v>64.26217023661877</v>
+        <v>64.26217023661883</v>
       </c>
     </row>
     <row r="17">
@@ -28728,7 +28728,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>144.6265034169702</v>
+        <v>84.51285293938389</v>
       </c>
       <c r="F19" t="n">
         <v>144.6265034169702</v>
@@ -28743,7 +28743,7 @@
         <v>118.5524231889554</v>
       </c>
       <c r="J19" t="n">
-        <v>6.613065132155953</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28770,7 +28770,7 @@
         <v>122.1247807672402</v>
       </c>
       <c r="S19" t="n">
-        <v>144.6265034169702</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>144.6265034169702</v>
@@ -28785,10 +28785,10 @@
         <v>144.6265034169702</v>
       </c>
       <c r="X19" t="n">
-        <v>77.89978780722811</v>
+        <v>144.6265034169702</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>144.6265034169702</v>
       </c>
     </row>
     <row r="20">
@@ -28956,19 +28956,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>144.6265034169702</v>
+        <v>84.51285293938393</v>
       </c>
       <c r="C22" t="n">
         <v>144.6265034169702</v>
       </c>
       <c r="D22" t="n">
-        <v>77.89978780722794</v>
+        <v>144.6265034169702</v>
       </c>
       <c r="E22" t="n">
         <v>144.6265034169702</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>144.6265034169702</v>
       </c>
       <c r="G22" t="n">
         <v>144.6265034169702</v>
@@ -28980,7 +28980,7 @@
         <v>118.5524231889554</v>
       </c>
       <c r="J22" t="n">
-        <v>6.613065132155953</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29013,7 +29013,7 @@
         <v>144.6265034169702</v>
       </c>
       <c r="U22" t="n">
-        <v>144.6265034169702</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -29193,7 +29193,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>77.89978780722825</v>
+        <v>84.51285293938412</v>
       </c>
       <c r="C25" t="n">
         <v>144.6265034169702</v>
@@ -29211,13 +29211,13 @@
         <v>144.6265034169702</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.6265034169702</v>
       </c>
       <c r="I25" t="n">
         <v>118.5524231889554</v>
       </c>
       <c r="J25" t="n">
-        <v>6.613065132155953</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29244,7 +29244,7 @@
         <v>122.1247807672402</v>
       </c>
       <c r="S25" t="n">
-        <v>144.6265034169702</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="C26" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="D26" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="E26" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="F26" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="G26" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="H26" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="I26" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="T26" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="U26" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="V26" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="W26" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="X26" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="Y26" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035141</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="C28" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="D28" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="E28" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="F28" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="G28" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="H28" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="I28" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="J28" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="K28" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="L28" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="M28" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="N28" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="O28" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="P28" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="Q28" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="R28" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="S28" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="T28" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="U28" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="V28" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="W28" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="X28" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="Y28" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035141</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035137</v>
       </c>
       <c r="C29" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035137</v>
       </c>
       <c r="D29" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035137</v>
       </c>
       <c r="E29" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035137</v>
       </c>
       <c r="F29" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035137</v>
       </c>
       <c r="G29" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035137</v>
       </c>
       <c r="H29" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035137</v>
       </c>
       <c r="I29" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035137</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035137</v>
       </c>
       <c r="T29" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035137</v>
       </c>
       <c r="U29" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035137</v>
       </c>
       <c r="V29" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035137</v>
       </c>
       <c r="W29" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035137</v>
       </c>
       <c r="X29" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035137</v>
       </c>
       <c r="Y29" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035137</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035137</v>
       </c>
       <c r="C31" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035137</v>
       </c>
       <c r="D31" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035137</v>
       </c>
       <c r="E31" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035137</v>
       </c>
       <c r="F31" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035137</v>
       </c>
       <c r="G31" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035137</v>
       </c>
       <c r="H31" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035137</v>
       </c>
       <c r="I31" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035137</v>
       </c>
       <c r="J31" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035137</v>
       </c>
       <c r="K31" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035137</v>
       </c>
       <c r="L31" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035137</v>
       </c>
       <c r="M31" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035137</v>
       </c>
       <c r="N31" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035137</v>
       </c>
       <c r="O31" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035137</v>
       </c>
       <c r="P31" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035137</v>
       </c>
       <c r="Q31" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035137</v>
       </c>
       <c r="R31" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035137</v>
       </c>
       <c r="S31" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035137</v>
       </c>
       <c r="T31" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035137</v>
       </c>
       <c r="U31" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035137</v>
       </c>
       <c r="V31" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035137</v>
       </c>
       <c r="W31" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035137</v>
       </c>
       <c r="X31" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035137</v>
       </c>
       <c r="Y31" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035137</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="C32" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="D32" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="E32" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="F32" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="G32" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="H32" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="I32" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="T32" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="U32" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="V32" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="W32" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="X32" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="Y32" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035139</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="C34" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="D34" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="E34" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="F34" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="G34" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="H34" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="I34" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="J34" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="K34" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="L34" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="M34" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="N34" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="O34" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="P34" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="Q34" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="R34" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="S34" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="T34" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="U34" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="V34" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="W34" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="X34" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="Y34" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035139</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="C35" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="D35" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="E35" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="F35" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="G35" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="H35" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="I35" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="T35" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="U35" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="V35" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="W35" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="X35" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="Y35" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="C37" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="D37" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="E37" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="F37" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="G37" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="H37" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="I37" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="J37" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="K37" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="L37" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="M37" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="N37" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="O37" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="P37" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="Q37" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="R37" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="S37" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="T37" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="U37" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="V37" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="W37" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="X37" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="Y37" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="C38" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="D38" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="E38" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="F38" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="G38" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="H38" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="I38" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="T38" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="U38" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="V38" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="W38" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="X38" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="Y38" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="C40" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="D40" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="E40" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="F40" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="G40" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="H40" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="I40" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="J40" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="K40" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="L40" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035066</v>
       </c>
       <c r="M40" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="N40" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="O40" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="P40" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="Q40" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="R40" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="S40" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="T40" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="U40" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="V40" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="W40" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="X40" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="Y40" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="C41" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="D41" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="E41" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="F41" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="G41" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="H41" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="I41" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="T41" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="U41" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="V41" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="W41" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="X41" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="Y41" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035139</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="C43" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="D43" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="E43" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="F43" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="G43" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="H43" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="I43" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="J43" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="K43" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="L43" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="M43" t="n">
-        <v>80.36433318035029</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="N43" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="O43" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="P43" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="Q43" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="R43" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="S43" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="T43" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="U43" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="V43" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="W43" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="X43" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="Y43" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035139</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="C44" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="D44" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="E44" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="F44" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="G44" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="H44" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="I44" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="T44" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="U44" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="V44" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="W44" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="X44" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="Y44" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035145</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="C46" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="D46" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="E46" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="F46" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="G46" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="H46" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="I46" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="J46" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="K46" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035014</v>
       </c>
       <c r="L46" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="M46" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="N46" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="O46" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="P46" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="Q46" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="R46" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="S46" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="T46" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="U46" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="V46" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="W46" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="X46" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="Y46" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035145</v>
       </c>
     </row>
   </sheetData>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>2.73529820327329</v>
+        <v>2.735298203273289</v>
       </c>
       <c r="H26" t="n">
         <v>28.01287272427258</v>
@@ -32944,22 +32944,22 @@
         <v>105.4525839816936</v>
       </c>
       <c r="J26" t="n">
-        <v>232.1550158800666</v>
+        <v>232.1550158800665</v>
       </c>
       <c r="K26" t="n">
-        <v>347.940188824625</v>
+        <v>347.9401888246249</v>
       </c>
       <c r="L26" t="n">
-        <v>431.65057121305</v>
+        <v>431.6505712130499</v>
       </c>
       <c r="M26" t="n">
         <v>480.2944306355113</v>
       </c>
       <c r="N26" t="n">
-        <v>488.0660966555616</v>
+        <v>488.0660966555615</v>
       </c>
       <c r="O26" t="n">
-        <v>460.8669751467628</v>
+        <v>460.8669751467627</v>
       </c>
       <c r="P26" t="n">
         <v>393.3393007534534</v>
@@ -32971,7 +32971,7 @@
         <v>171.8211757613659</v>
       </c>
       <c r="S26" t="n">
-        <v>62.33060780709015</v>
+        <v>62.33060780709014</v>
       </c>
       <c r="T26" t="n">
         <v>11.97376788482883</v>
@@ -33014,13 +33014,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.463513562251366</v>
+        <v>1.463513562251365</v>
       </c>
       <c r="H27" t="n">
-        <v>14.13445993016451</v>
+        <v>14.1344599301645</v>
       </c>
       <c r="I27" t="n">
-        <v>50.38851519154921</v>
+        <v>50.3885151915492</v>
       </c>
       <c r="J27" t="n">
         <v>138.2699370370906</v>
@@ -33029,34 +33029,34 @@
         <v>236.3253457079321</v>
       </c>
       <c r="L27" t="n">
-        <v>317.7685916633941</v>
+        <v>317.768591663394</v>
       </c>
       <c r="M27" t="n">
-        <v>370.820958295006</v>
+        <v>370.8209582950059</v>
       </c>
       <c r="N27" t="n">
         <v>380.6354856488759</v>
       </c>
       <c r="O27" t="n">
-        <v>348.2071061905694</v>
+        <v>348.2071061905693</v>
       </c>
       <c r="P27" t="n">
         <v>279.466901198684</v>
       </c>
       <c r="Q27" t="n">
-        <v>186.8162224375603</v>
+        <v>186.8162224375602</v>
       </c>
       <c r="R27" t="n">
-        <v>90.86621924223832</v>
+        <v>90.8662192422383</v>
       </c>
       <c r="S27" t="n">
-        <v>27.18412252690583</v>
+        <v>27.18412252690582</v>
       </c>
       <c r="T27" t="n">
-        <v>5.898986682934229</v>
+        <v>5.898986682934228</v>
       </c>
       <c r="U27" t="n">
-        <v>0.09628378699022144</v>
+        <v>0.09628378699022143</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33099,13 +33099,13 @@
         <v>10.90879522371834</v>
       </c>
       <c r="I28" t="n">
-        <v>36.89805173830291</v>
+        <v>36.8980517383029</v>
       </c>
       <c r="J28" t="n">
-        <v>86.74611498451682</v>
+        <v>86.74611498451681</v>
       </c>
       <c r="K28" t="n">
-        <v>142.5505142731291</v>
+        <v>142.550514273129</v>
       </c>
       <c r="L28" t="n">
         <v>182.4155798452859</v>
@@ -33126,16 +33126,16 @@
         <v>102.7412196376989</v>
       </c>
       <c r="R28" t="n">
-        <v>55.16861060992929</v>
+        <v>55.16861060992928</v>
       </c>
       <c r="S28" t="n">
-        <v>21.38257714096936</v>
+        <v>21.38257714096935</v>
       </c>
       <c r="T28" t="n">
         <v>5.242468052298173</v>
       </c>
       <c r="U28" t="n">
-        <v>0.06692512407189168</v>
+        <v>0.06692512407189166</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>2.735298203273289</v>
+        <v>2.73529820327329</v>
       </c>
       <c r="H29" t="n">
         <v>28.01287272427258</v>
@@ -33181,22 +33181,22 @@
         <v>105.4525839816936</v>
       </c>
       <c r="J29" t="n">
-        <v>232.1550158800665</v>
+        <v>232.1550158800666</v>
       </c>
       <c r="K29" t="n">
-        <v>347.9401888246249</v>
+        <v>347.940188824625</v>
       </c>
       <c r="L29" t="n">
-        <v>431.6505712130499</v>
+        <v>431.65057121305</v>
       </c>
       <c r="M29" t="n">
         <v>480.2944306355113</v>
       </c>
       <c r="N29" t="n">
-        <v>488.0660966555615</v>
+        <v>488.0660966555616</v>
       </c>
       <c r="O29" t="n">
-        <v>460.8669751467627</v>
+        <v>460.8669751467628</v>
       </c>
       <c r="P29" t="n">
         <v>393.3393007534534</v>
@@ -33208,7 +33208,7 @@
         <v>171.8211757613659</v>
       </c>
       <c r="S29" t="n">
-        <v>62.33060780709014</v>
+        <v>62.33060780709015</v>
       </c>
       <c r="T29" t="n">
         <v>11.97376788482883</v>
@@ -33251,13 +33251,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.463513562251365</v>
+        <v>1.463513562251366</v>
       </c>
       <c r="H30" t="n">
-        <v>14.1344599301645</v>
+        <v>14.13445993016451</v>
       </c>
       <c r="I30" t="n">
-        <v>50.3885151915492</v>
+        <v>50.38851519154921</v>
       </c>
       <c r="J30" t="n">
         <v>138.2699370370906</v>
@@ -33266,34 +33266,34 @@
         <v>236.3253457079321</v>
       </c>
       <c r="L30" t="n">
-        <v>317.768591663394</v>
+        <v>317.7685916633941</v>
       </c>
       <c r="M30" t="n">
-        <v>370.8209582950059</v>
+        <v>370.820958295006</v>
       </c>
       <c r="N30" t="n">
         <v>380.6354856488759</v>
       </c>
       <c r="O30" t="n">
-        <v>348.2071061905693</v>
+        <v>348.2071061905694</v>
       </c>
       <c r="P30" t="n">
         <v>279.466901198684</v>
       </c>
       <c r="Q30" t="n">
-        <v>186.8162224375602</v>
+        <v>186.8162224375603</v>
       </c>
       <c r="R30" t="n">
-        <v>90.8662192422383</v>
+        <v>90.86621924223832</v>
       </c>
       <c r="S30" t="n">
-        <v>27.18412252690582</v>
+        <v>27.18412252690583</v>
       </c>
       <c r="T30" t="n">
-        <v>5.898986682934228</v>
+        <v>5.898986682934229</v>
       </c>
       <c r="U30" t="n">
-        <v>0.09628378699022143</v>
+        <v>0.09628378699022144</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33336,13 +33336,13 @@
         <v>10.90879522371834</v>
       </c>
       <c r="I31" t="n">
-        <v>36.8980517383029</v>
+        <v>36.89805173830291</v>
       </c>
       <c r="J31" t="n">
-        <v>86.74611498451681</v>
+        <v>86.74611498451682</v>
       </c>
       <c r="K31" t="n">
-        <v>142.550514273129</v>
+        <v>142.5505142731291</v>
       </c>
       <c r="L31" t="n">
         <v>182.4155798452859</v>
@@ -33363,16 +33363,16 @@
         <v>102.7412196376989</v>
       </c>
       <c r="R31" t="n">
-        <v>55.16861060992928</v>
+        <v>55.16861060992929</v>
       </c>
       <c r="S31" t="n">
-        <v>21.38257714096935</v>
+        <v>21.38257714096936</v>
       </c>
       <c r="T31" t="n">
         <v>5.242468052298173</v>
       </c>
       <c r="U31" t="n">
-        <v>0.06692512407189166</v>
+        <v>0.06692512407189168</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>2.735298203273289</v>
+        <v>2.73529820327329</v>
       </c>
       <c r="H32" t="n">
         <v>28.01287272427258</v>
@@ -33418,22 +33418,22 @@
         <v>105.4525839816936</v>
       </c>
       <c r="J32" t="n">
-        <v>232.1550158800665</v>
+        <v>232.1550158800666</v>
       </c>
       <c r="K32" t="n">
-        <v>347.9401888246249</v>
+        <v>347.940188824625</v>
       </c>
       <c r="L32" t="n">
-        <v>431.6505712130499</v>
+        <v>431.65057121305</v>
       </c>
       <c r="M32" t="n">
         <v>480.2944306355113</v>
       </c>
       <c r="N32" t="n">
-        <v>488.0660966555615</v>
+        <v>488.0660966555616</v>
       </c>
       <c r="O32" t="n">
-        <v>460.8669751467627</v>
+        <v>460.8669751467628</v>
       </c>
       <c r="P32" t="n">
         <v>393.3393007534534</v>
@@ -33445,7 +33445,7 @@
         <v>171.8211757613659</v>
       </c>
       <c r="S32" t="n">
-        <v>62.33060780709014</v>
+        <v>62.33060780709015</v>
       </c>
       <c r="T32" t="n">
         <v>11.97376788482883</v>
@@ -33488,13 +33488,13 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.463513562251365</v>
+        <v>1.463513562251366</v>
       </c>
       <c r="H33" t="n">
-        <v>14.1344599301645</v>
+        <v>14.13445993016451</v>
       </c>
       <c r="I33" t="n">
-        <v>50.3885151915492</v>
+        <v>50.38851519154921</v>
       </c>
       <c r="J33" t="n">
         <v>138.2699370370906</v>
@@ -33503,34 +33503,34 @@
         <v>236.3253457079321</v>
       </c>
       <c r="L33" t="n">
-        <v>317.768591663394</v>
+        <v>317.7685916633941</v>
       </c>
       <c r="M33" t="n">
-        <v>370.8209582950059</v>
+        <v>370.820958295006</v>
       </c>
       <c r="N33" t="n">
         <v>380.6354856488759</v>
       </c>
       <c r="O33" t="n">
-        <v>348.2071061905693</v>
+        <v>348.2071061905694</v>
       </c>
       <c r="P33" t="n">
         <v>279.466901198684</v>
       </c>
       <c r="Q33" t="n">
-        <v>186.8162224375602</v>
+        <v>186.8162224375603</v>
       </c>
       <c r="R33" t="n">
-        <v>90.8662192422383</v>
+        <v>90.86621924223832</v>
       </c>
       <c r="S33" t="n">
-        <v>27.18412252690582</v>
+        <v>27.18412252690583</v>
       </c>
       <c r="T33" t="n">
-        <v>5.898986682934228</v>
+        <v>5.898986682934229</v>
       </c>
       <c r="U33" t="n">
-        <v>0.09628378699022143</v>
+        <v>0.09628378699022144</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33573,13 +33573,13 @@
         <v>10.90879522371834</v>
       </c>
       <c r="I34" t="n">
-        <v>36.8980517383029</v>
+        <v>36.89805173830291</v>
       </c>
       <c r="J34" t="n">
-        <v>86.74611498451681</v>
+        <v>86.74611498451682</v>
       </c>
       <c r="K34" t="n">
-        <v>142.550514273129</v>
+        <v>142.5505142731291</v>
       </c>
       <c r="L34" t="n">
         <v>182.4155798452859</v>
@@ -33600,16 +33600,16 @@
         <v>102.7412196376989</v>
       </c>
       <c r="R34" t="n">
-        <v>55.16861060992928</v>
+        <v>55.16861060992929</v>
       </c>
       <c r="S34" t="n">
-        <v>21.38257714096935</v>
+        <v>21.38257714096936</v>
       </c>
       <c r="T34" t="n">
         <v>5.242468052298173</v>
       </c>
       <c r="U34" t="n">
-        <v>0.06692512407189166</v>
+        <v>0.06692512407189168</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>2.735298203273289</v>
+        <v>2.73529820327329</v>
       </c>
       <c r="H35" t="n">
         <v>28.01287272427258</v>
@@ -33655,22 +33655,22 @@
         <v>105.4525839816936</v>
       </c>
       <c r="J35" t="n">
-        <v>232.1550158800665</v>
+        <v>232.1550158800666</v>
       </c>
       <c r="K35" t="n">
-        <v>347.9401888246249</v>
+        <v>347.940188824625</v>
       </c>
       <c r="L35" t="n">
-        <v>431.6505712130499</v>
+        <v>431.65057121305</v>
       </c>
       <c r="M35" t="n">
         <v>480.2944306355113</v>
       </c>
       <c r="N35" t="n">
-        <v>488.0660966555615</v>
+        <v>488.0660966555616</v>
       </c>
       <c r="O35" t="n">
-        <v>460.8669751467627</v>
+        <v>460.8669751467628</v>
       </c>
       <c r="P35" t="n">
         <v>393.3393007534534</v>
@@ -33682,7 +33682,7 @@
         <v>171.8211757613659</v>
       </c>
       <c r="S35" t="n">
-        <v>62.33060780709014</v>
+        <v>62.33060780709015</v>
       </c>
       <c r="T35" t="n">
         <v>11.97376788482883</v>
@@ -33725,13 +33725,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.463513562251365</v>
+        <v>1.463513562251366</v>
       </c>
       <c r="H36" t="n">
-        <v>14.1344599301645</v>
+        <v>14.13445993016451</v>
       </c>
       <c r="I36" t="n">
-        <v>50.3885151915492</v>
+        <v>50.38851519154921</v>
       </c>
       <c r="J36" t="n">
         <v>138.2699370370906</v>
@@ -33740,34 +33740,34 @@
         <v>236.3253457079321</v>
       </c>
       <c r="L36" t="n">
-        <v>317.768591663394</v>
+        <v>317.7685916633941</v>
       </c>
       <c r="M36" t="n">
-        <v>370.8209582950059</v>
+        <v>370.820958295006</v>
       </c>
       <c r="N36" t="n">
         <v>380.6354856488759</v>
       </c>
       <c r="O36" t="n">
-        <v>348.2071061905693</v>
+        <v>348.2071061905694</v>
       </c>
       <c r="P36" t="n">
         <v>279.466901198684</v>
       </c>
       <c r="Q36" t="n">
-        <v>186.8162224375602</v>
+        <v>186.8162224375603</v>
       </c>
       <c r="R36" t="n">
-        <v>90.8662192422383</v>
+        <v>90.86621924223832</v>
       </c>
       <c r="S36" t="n">
-        <v>27.18412252690582</v>
+        <v>27.18412252690583</v>
       </c>
       <c r="T36" t="n">
-        <v>5.898986682934228</v>
+        <v>5.898986682934229</v>
       </c>
       <c r="U36" t="n">
-        <v>0.09628378699022143</v>
+        <v>0.09628378699022144</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33810,13 +33810,13 @@
         <v>10.90879522371834</v>
       </c>
       <c r="I37" t="n">
-        <v>36.8980517383029</v>
+        <v>36.89805173830291</v>
       </c>
       <c r="J37" t="n">
-        <v>86.74611498451681</v>
+        <v>86.74611498451682</v>
       </c>
       <c r="K37" t="n">
-        <v>142.550514273129</v>
+        <v>142.5505142731291</v>
       </c>
       <c r="L37" t="n">
         <v>182.4155798452859</v>
@@ -33837,16 +33837,16 @@
         <v>102.7412196376989</v>
       </c>
       <c r="R37" t="n">
-        <v>55.16861060992928</v>
+        <v>55.16861060992929</v>
       </c>
       <c r="S37" t="n">
-        <v>21.38257714096935</v>
+        <v>21.38257714096936</v>
       </c>
       <c r="T37" t="n">
         <v>5.242468052298173</v>
       </c>
       <c r="U37" t="n">
-        <v>0.06692512407189166</v>
+        <v>0.06692512407189168</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>2.735298203273289</v>
+        <v>2.73529820327329</v>
       </c>
       <c r="H38" t="n">
         <v>28.01287272427258</v>
@@ -33892,22 +33892,22 @@
         <v>105.4525839816936</v>
       </c>
       <c r="J38" t="n">
-        <v>232.1550158800665</v>
+        <v>232.1550158800666</v>
       </c>
       <c r="K38" t="n">
-        <v>347.9401888246249</v>
+        <v>347.940188824625</v>
       </c>
       <c r="L38" t="n">
-        <v>431.6505712130499</v>
+        <v>431.65057121305</v>
       </c>
       <c r="M38" t="n">
         <v>480.2944306355113</v>
       </c>
       <c r="N38" t="n">
-        <v>488.0660966555615</v>
+        <v>488.0660966555616</v>
       </c>
       <c r="O38" t="n">
-        <v>460.8669751467627</v>
+        <v>460.8669751467628</v>
       </c>
       <c r="P38" t="n">
         <v>393.3393007534534</v>
@@ -33919,7 +33919,7 @@
         <v>171.8211757613659</v>
       </c>
       <c r="S38" t="n">
-        <v>62.33060780709014</v>
+        <v>62.33060780709015</v>
       </c>
       <c r="T38" t="n">
         <v>11.97376788482883</v>
@@ -33962,13 +33962,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.463513562251365</v>
+        <v>1.463513562251366</v>
       </c>
       <c r="H39" t="n">
-        <v>14.1344599301645</v>
+        <v>14.13445993016451</v>
       </c>
       <c r="I39" t="n">
-        <v>50.3885151915492</v>
+        <v>50.38851519154921</v>
       </c>
       <c r="J39" t="n">
         <v>138.2699370370906</v>
@@ -33977,34 +33977,34 @@
         <v>236.3253457079321</v>
       </c>
       <c r="L39" t="n">
-        <v>317.768591663394</v>
+        <v>317.7685916633941</v>
       </c>
       <c r="M39" t="n">
-        <v>370.8209582950059</v>
+        <v>370.820958295006</v>
       </c>
       <c r="N39" t="n">
         <v>380.6354856488759</v>
       </c>
       <c r="O39" t="n">
-        <v>348.2071061905693</v>
+        <v>348.2071061905694</v>
       </c>
       <c r="P39" t="n">
         <v>279.466901198684</v>
       </c>
       <c r="Q39" t="n">
-        <v>186.8162224375602</v>
+        <v>186.8162224375603</v>
       </c>
       <c r="R39" t="n">
-        <v>90.8662192422383</v>
+        <v>90.86621924223832</v>
       </c>
       <c r="S39" t="n">
-        <v>27.18412252690582</v>
+        <v>27.18412252690583</v>
       </c>
       <c r="T39" t="n">
-        <v>5.898986682934228</v>
+        <v>5.898986682934229</v>
       </c>
       <c r="U39" t="n">
-        <v>0.09628378699022143</v>
+        <v>0.09628378699022144</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34047,13 +34047,13 @@
         <v>10.90879522371834</v>
       </c>
       <c r="I40" t="n">
-        <v>36.8980517383029</v>
+        <v>36.89805173830291</v>
       </c>
       <c r="J40" t="n">
-        <v>86.74611498451681</v>
+        <v>86.74611498451682</v>
       </c>
       <c r="K40" t="n">
-        <v>142.550514273129</v>
+        <v>142.5505142731291</v>
       </c>
       <c r="L40" t="n">
         <v>182.4155798452859</v>
@@ -34074,16 +34074,16 @@
         <v>102.7412196376989</v>
       </c>
       <c r="R40" t="n">
-        <v>55.16861060992928</v>
+        <v>55.16861060992929</v>
       </c>
       <c r="S40" t="n">
-        <v>21.38257714096935</v>
+        <v>21.38257714096936</v>
       </c>
       <c r="T40" t="n">
         <v>5.242468052298173</v>
       </c>
       <c r="U40" t="n">
-        <v>0.06692512407189166</v>
+        <v>0.06692512407189168</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>2.735298203273289</v>
+        <v>2.73529820327329</v>
       </c>
       <c r="H41" t="n">
         <v>28.01287272427258</v>
@@ -34129,22 +34129,22 @@
         <v>105.4525839816936</v>
       </c>
       <c r="J41" t="n">
-        <v>232.1550158800665</v>
+        <v>232.1550158800666</v>
       </c>
       <c r="K41" t="n">
-        <v>347.9401888246249</v>
+        <v>347.940188824625</v>
       </c>
       <c r="L41" t="n">
-        <v>431.6505712130499</v>
+        <v>431.65057121305</v>
       </c>
       <c r="M41" t="n">
         <v>480.2944306355113</v>
       </c>
       <c r="N41" t="n">
-        <v>488.0660966555615</v>
+        <v>488.0660966555616</v>
       </c>
       <c r="O41" t="n">
-        <v>460.8669751467627</v>
+        <v>460.8669751467628</v>
       </c>
       <c r="P41" t="n">
         <v>393.3393007534534</v>
@@ -34156,7 +34156,7 @@
         <v>171.8211757613659</v>
       </c>
       <c r="S41" t="n">
-        <v>62.33060780709014</v>
+        <v>62.33060780709015</v>
       </c>
       <c r="T41" t="n">
         <v>11.97376788482883</v>
@@ -34199,13 +34199,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.463513562251365</v>
+        <v>1.463513562251366</v>
       </c>
       <c r="H42" t="n">
-        <v>14.1344599301645</v>
+        <v>14.13445993016451</v>
       </c>
       <c r="I42" t="n">
-        <v>50.3885151915492</v>
+        <v>50.38851519154921</v>
       </c>
       <c r="J42" t="n">
         <v>138.2699370370906</v>
@@ -34214,34 +34214,34 @@
         <v>236.3253457079321</v>
       </c>
       <c r="L42" t="n">
-        <v>317.768591663394</v>
+        <v>317.7685916633941</v>
       </c>
       <c r="M42" t="n">
-        <v>370.8209582950059</v>
+        <v>370.820958295006</v>
       </c>
       <c r="N42" t="n">
         <v>380.6354856488759</v>
       </c>
       <c r="O42" t="n">
-        <v>348.2071061905693</v>
+        <v>348.2071061905694</v>
       </c>
       <c r="P42" t="n">
         <v>279.466901198684</v>
       </c>
       <c r="Q42" t="n">
-        <v>186.8162224375602</v>
+        <v>186.8162224375603</v>
       </c>
       <c r="R42" t="n">
-        <v>90.8662192422383</v>
+        <v>90.86621924223832</v>
       </c>
       <c r="S42" t="n">
-        <v>27.18412252690582</v>
+        <v>27.18412252690583</v>
       </c>
       <c r="T42" t="n">
-        <v>5.898986682934228</v>
+        <v>5.898986682934229</v>
       </c>
       <c r="U42" t="n">
-        <v>0.09628378699022143</v>
+        <v>0.09628378699022144</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34284,13 +34284,13 @@
         <v>10.90879522371834</v>
       </c>
       <c r="I43" t="n">
-        <v>36.8980517383029</v>
+        <v>36.89805173830291</v>
       </c>
       <c r="J43" t="n">
-        <v>86.74611498451681</v>
+        <v>86.74611498451682</v>
       </c>
       <c r="K43" t="n">
-        <v>142.550514273129</v>
+        <v>142.5505142731291</v>
       </c>
       <c r="L43" t="n">
         <v>182.4155798452859</v>
@@ -34311,16 +34311,16 @@
         <v>102.7412196376989</v>
       </c>
       <c r="R43" t="n">
-        <v>55.16861060992928</v>
+        <v>55.16861060992929</v>
       </c>
       <c r="S43" t="n">
-        <v>21.38257714096935</v>
+        <v>21.38257714096936</v>
       </c>
       <c r="T43" t="n">
         <v>5.242468052298173</v>
       </c>
       <c r="U43" t="n">
-        <v>0.06692512407189166</v>
+        <v>0.06692512407189168</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>2.735298203273289</v>
+        <v>2.73529820327329</v>
       </c>
       <c r="H44" t="n">
         <v>28.01287272427258</v>
@@ -34366,22 +34366,22 @@
         <v>105.4525839816936</v>
       </c>
       <c r="J44" t="n">
-        <v>232.1550158800665</v>
+        <v>232.1550158800666</v>
       </c>
       <c r="K44" t="n">
-        <v>347.9401888246249</v>
+        <v>347.940188824625</v>
       </c>
       <c r="L44" t="n">
-        <v>431.6505712130499</v>
+        <v>431.65057121305</v>
       </c>
       <c r="M44" t="n">
         <v>480.2944306355113</v>
       </c>
       <c r="N44" t="n">
-        <v>488.0660966555615</v>
+        <v>488.0660966555616</v>
       </c>
       <c r="O44" t="n">
-        <v>460.8669751467627</v>
+        <v>460.8669751467628</v>
       </c>
       <c r="P44" t="n">
         <v>393.3393007534534</v>
@@ -34393,7 +34393,7 @@
         <v>171.8211757613659</v>
       </c>
       <c r="S44" t="n">
-        <v>62.33060780709014</v>
+        <v>62.33060780709015</v>
       </c>
       <c r="T44" t="n">
         <v>11.97376788482883</v>
@@ -34436,13 +34436,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.463513562251365</v>
+        <v>1.463513562251366</v>
       </c>
       <c r="H45" t="n">
-        <v>14.1344599301645</v>
+        <v>14.13445993016451</v>
       </c>
       <c r="I45" t="n">
-        <v>50.3885151915492</v>
+        <v>50.38851519154921</v>
       </c>
       <c r="J45" t="n">
         <v>138.2699370370906</v>
@@ -34451,34 +34451,34 @@
         <v>236.3253457079321</v>
       </c>
       <c r="L45" t="n">
-        <v>317.768591663394</v>
+        <v>317.7685916633941</v>
       </c>
       <c r="M45" t="n">
-        <v>370.8209582950059</v>
+        <v>370.820958295006</v>
       </c>
       <c r="N45" t="n">
         <v>380.6354856488759</v>
       </c>
       <c r="O45" t="n">
-        <v>348.2071061905693</v>
+        <v>348.2071061905694</v>
       </c>
       <c r="P45" t="n">
         <v>279.466901198684</v>
       </c>
       <c r="Q45" t="n">
-        <v>186.8162224375602</v>
+        <v>186.8162224375603</v>
       </c>
       <c r="R45" t="n">
-        <v>90.8662192422383</v>
+        <v>90.86621924223832</v>
       </c>
       <c r="S45" t="n">
-        <v>27.18412252690582</v>
+        <v>27.18412252690583</v>
       </c>
       <c r="T45" t="n">
-        <v>5.898986682934228</v>
+        <v>5.898986682934229</v>
       </c>
       <c r="U45" t="n">
-        <v>0.09628378699022143</v>
+        <v>0.09628378699022144</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34521,13 +34521,13 @@
         <v>10.90879522371834</v>
       </c>
       <c r="I46" t="n">
-        <v>36.8980517383029</v>
+        <v>36.89805173830291</v>
       </c>
       <c r="J46" t="n">
-        <v>86.74611498451681</v>
+        <v>86.74611498451682</v>
       </c>
       <c r="K46" t="n">
-        <v>142.550514273129</v>
+        <v>142.5505142731291</v>
       </c>
       <c r="L46" t="n">
         <v>182.4155798452859</v>
@@ -34548,16 +34548,16 @@
         <v>102.7412196376989</v>
       </c>
       <c r="R46" t="n">
-        <v>55.16861060992928</v>
+        <v>55.16861060992929</v>
       </c>
       <c r="S46" t="n">
-        <v>21.38257714096935</v>
+        <v>21.38257714096936</v>
       </c>
       <c r="T46" t="n">
         <v>5.242468052298173</v>
       </c>
       <c r="U46" t="n">
-        <v>0.06692512407189166</v>
+        <v>0.06692512407189168</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35410,10 +35410,10 @@
         <v>220.2057265254541</v>
       </c>
       <c r="K11" t="n">
-        <v>394.5543679822391</v>
+        <v>451.9957503508091</v>
       </c>
       <c r="L11" t="n">
-        <v>613.5453707935133</v>
+        <v>321.8369399448218</v>
       </c>
       <c r="M11" t="n">
         <v>249.9481974082386</v>
@@ -35428,10 +35428,10 @@
         <v>162.1063049981839</v>
       </c>
       <c r="Q11" t="n">
-        <v>73.07574397427916</v>
+        <v>285.3907346341838</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>21.95205782021625</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>137.5233457108328</v>
       </c>
       <c r="K12" t="n">
-        <v>362.9491437461517</v>
+        <v>170.1092371228386</v>
       </c>
       <c r="L12" t="n">
-        <v>275.5150297145438</v>
+        <v>179.2142118835199</v>
       </c>
       <c r="M12" t="n">
-        <v>228.6869243729877</v>
+        <v>652.5053859263809</v>
       </c>
       <c r="N12" t="n">
-        <v>652.505385926381</v>
+        <v>652.5053859263809</v>
       </c>
       <c r="O12" t="n">
-        <v>205.610861746125</v>
+        <v>599.4731810228545</v>
       </c>
       <c r="P12" t="n">
-        <v>463.9552624242909</v>
+        <v>145.4924937843538</v>
       </c>
       <c r="Q12" t="n">
-        <v>256.9117360873879</v>
+        <v>46.83444835153875</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>57.64910510446288</v>
+        <v>57.64910510446282</v>
       </c>
       <c r="K13" t="n">
         <v>184.543192683865</v>
@@ -35580,13 +35580,13 @@
         <v>296.1527781995394</v>
       </c>
       <c r="O13" t="n">
-        <v>262.2726029956203</v>
+        <v>262.2726029956202</v>
       </c>
       <c r="P13" t="n">
         <v>209.9360379435865</v>
       </c>
       <c r="Q13" t="n">
-        <v>80.84134662262336</v>
+        <v>80.84134662262331</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,22 +35647,22 @@
         <v>220.2057265254541</v>
       </c>
       <c r="K14" t="n">
-        <v>451.9957503508091</v>
+        <v>256.3448764459052</v>
       </c>
       <c r="L14" t="n">
         <v>195.8841562430628</v>
       </c>
       <c r="M14" t="n">
-        <v>249.9481974082386</v>
+        <v>652.505385926381</v>
       </c>
       <c r="N14" t="n">
-        <v>652.505385926381</v>
+        <v>258.6530330589707</v>
       </c>
       <c r="O14" t="n">
-        <v>365.6214336423869</v>
+        <v>230.7687637250761</v>
       </c>
       <c r="P14" t="n">
-        <v>162.1063049981839</v>
+        <v>483.9050131696665</v>
       </c>
       <c r="Q14" t="n">
         <v>285.3907346341838</v>
@@ -35723,22 +35723,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>11.43231037042395</v>
+        <v>137.5233457108328</v>
       </c>
       <c r="K15" t="n">
-        <v>193.8938024215702</v>
+        <v>362.9491437461517</v>
       </c>
       <c r="L15" t="n">
-        <v>550.0545571869791</v>
+        <v>179.2142118835199</v>
       </c>
       <c r="M15" t="n">
-        <v>652.505385926381</v>
+        <v>228.6869243729877</v>
       </c>
       <c r="N15" t="n">
-        <v>249.2937735655426</v>
+        <v>354.9438844806752</v>
       </c>
       <c r="O15" t="n">
-        <v>205.610861746125</v>
+        <v>599.4731810228545</v>
       </c>
       <c r="P15" t="n">
         <v>463.9552624242909</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>57.64910510446282</v>
+        <v>57.64910510446288</v>
       </c>
       <c r="K16" t="n">
         <v>184.543192683865</v>
@@ -35817,13 +35817,13 @@
         <v>296.1527781995394</v>
       </c>
       <c r="O16" t="n">
-        <v>262.2726029956202</v>
+        <v>262.2726029956203</v>
       </c>
       <c r="P16" t="n">
         <v>209.9360379435865</v>
       </c>
       <c r="Q16" t="n">
-        <v>80.84134662262331</v>
+        <v>80.84134662262336</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,13 +35881,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>51.10911135338029</v>
+        <v>220.2057265254541</v>
       </c>
       <c r="K17" t="n">
         <v>451.9957503508091</v>
       </c>
       <c r="L17" t="n">
-        <v>613.5453707935133</v>
+        <v>195.8841562430628</v>
       </c>
       <c r="M17" t="n">
         <v>249.9481974082386</v>
@@ -35896,16 +35896,16 @@
         <v>258.6530330589707</v>
       </c>
       <c r="O17" t="n">
-        <v>379.4734117996265</v>
+        <v>437.6750783383147</v>
       </c>
       <c r="P17" t="n">
         <v>483.9050131696665</v>
       </c>
       <c r="Q17" t="n">
-        <v>73.07574397427916</v>
+        <v>285.3907346341838</v>
       </c>
       <c r="R17" t="n">
-        <v>21.95205782021625</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>73.06110597424674</v>
+        <v>137.5233457108328</v>
       </c>
       <c r="K18" t="n">
         <v>362.9491437461517</v>
       </c>
       <c r="L18" t="n">
-        <v>550.0545571869791</v>
+        <v>179.2142118835199</v>
       </c>
       <c r="M18" t="n">
         <v>228.6869243729877</v>
       </c>
       <c r="N18" t="n">
-        <v>652.505385926381</v>
+        <v>354.9438844806752</v>
       </c>
       <c r="O18" t="n">
-        <v>205.610861746125</v>
+        <v>599.4731810228545</v>
       </c>
       <c r="P18" t="n">
         <v>463.9552624242909</v>
       </c>
       <c r="Q18" t="n">
-        <v>46.83444835153875</v>
+        <v>256.9117360873879</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,28 +36118,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>51.10911135338029</v>
+        <v>220.2057265254541</v>
       </c>
       <c r="K20" t="n">
-        <v>169.7986302869026</v>
+        <v>127.8503377796444</v>
       </c>
       <c r="L20" t="n">
         <v>613.5453707935133</v>
       </c>
       <c r="M20" t="n">
-        <v>249.9481974082386</v>
+        <v>652.5053859263809</v>
       </c>
       <c r="N20" t="n">
-        <v>652.505385926381</v>
+        <v>258.6530330589707</v>
       </c>
       <c r="O20" t="n">
-        <v>611.5689449878214</v>
+        <v>230.7687637250761</v>
       </c>
       <c r="P20" t="n">
-        <v>162.1063049981839</v>
+        <v>194.7383372854769</v>
       </c>
       <c r="Q20" t="n">
-        <v>73.07574397427916</v>
+        <v>285.3907346341838</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>11.43231037042395</v>
+        <v>137.5233457108328</v>
       </c>
       <c r="K21" t="n">
-        <v>98.48390673357312</v>
+        <v>362.9491437461517</v>
       </c>
       <c r="L21" t="n">
-        <v>550.0545571869791</v>
+        <v>275.515029714544</v>
       </c>
       <c r="M21" t="n">
-        <v>652.505385926381</v>
+        <v>228.6869243729877</v>
       </c>
       <c r="N21" t="n">
-        <v>652.505385926381</v>
+        <v>652.5053859263809</v>
       </c>
       <c r="O21" t="n">
-        <v>426.3492014490699</v>
+        <v>205.610861746125</v>
       </c>
       <c r="P21" t="n">
-        <v>145.4924937843538</v>
+        <v>463.9552624242909</v>
       </c>
       <c r="Q21" t="n">
-        <v>46.83444835153875</v>
+        <v>256.9117360873879</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36358,22 +36358,22 @@
         <v>51.10911135338029</v>
       </c>
       <c r="K23" t="n">
-        <v>127.8503377796444</v>
+        <v>198.7444259483283</v>
       </c>
       <c r="L23" t="n">
         <v>613.5453707935133</v>
       </c>
       <c r="M23" t="n">
-        <v>678.379496693213</v>
+        <v>678.3794966932132</v>
       </c>
       <c r="N23" t="n">
-        <v>427.4748766904142</v>
+        <v>678.3794966932132</v>
       </c>
       <c r="O23" t="n">
         <v>230.7687637250761</v>
       </c>
       <c r="P23" t="n">
-        <v>483.9050131696665</v>
+        <v>162.1063049981839</v>
       </c>
       <c r="Q23" t="n">
         <v>73.07574397427916</v>
@@ -36437,25 +36437,25 @@
         <v>137.5233457108328</v>
       </c>
       <c r="K24" t="n">
-        <v>98.48390673357312</v>
+        <v>362.9491437461517</v>
       </c>
       <c r="L24" t="n">
         <v>550.0545571869791</v>
       </c>
       <c r="M24" t="n">
-        <v>678.379496693213</v>
+        <v>357.3590092613905</v>
       </c>
       <c r="N24" t="n">
-        <v>678.379496693213</v>
+        <v>249.2937735655426</v>
       </c>
       <c r="O24" t="n">
-        <v>248.5099445749973</v>
+        <v>205.610861746125</v>
       </c>
       <c r="P24" t="n">
-        <v>145.4924937843538</v>
+        <v>463.9552624242909</v>
       </c>
       <c r="Q24" t="n">
-        <v>46.83444835153875</v>
+        <v>256.9117360873879</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,19 +36592,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>111.4836101795258</v>
+        <v>220.205726525454</v>
       </c>
       <c r="K26" t="n">
-        <v>127.8503377796444</v>
+        <v>451.9957503508091</v>
       </c>
       <c r="L26" t="n">
-        <v>613.5453707935133</v>
+        <v>392.9928325363247</v>
       </c>
       <c r="M26" t="n">
         <v>699.4617309010711</v>
       </c>
       <c r="N26" t="n">
-        <v>695.9999574709549</v>
+        <v>695.9999574709548</v>
       </c>
       <c r="O26" t="n">
         <v>611.5689449878214</v>
@@ -36613,7 +36613,7 @@
         <v>483.9050131696665</v>
       </c>
       <c r="Q26" t="n">
-        <v>285.3907346341838</v>
+        <v>73.07574397427911</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>137.5233457108328</v>
+        <v>11.43231037042392</v>
       </c>
       <c r="K27" t="n">
         <v>362.9491437461517</v>
@@ -36680,19 +36680,19 @@
         <v>550.0545571869791</v>
       </c>
       <c r="M27" t="n">
-        <v>228.6869243729877</v>
+        <v>228.6869243729876</v>
       </c>
       <c r="N27" t="n">
-        <v>588.043146189795</v>
+        <v>728.6361479090961</v>
       </c>
       <c r="O27" t="n">
-        <v>205.610861746125</v>
+        <v>205.6108617461249</v>
       </c>
       <c r="P27" t="n">
-        <v>463.9552624242909</v>
+        <v>239.3760083095495</v>
       </c>
       <c r="Q27" t="n">
-        <v>46.83444835153875</v>
+        <v>256.9117360873878</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>73.75126804819541</v>
+        <v>73.75126804819544</v>
       </c>
       <c r="K28" t="n">
         <v>200.6453556275976</v>
@@ -36759,10 +36759,10 @@
         <v>290.3699382859534</v>
       </c>
       <c r="M28" t="n">
-        <v>312.279862537463</v>
+        <v>312.2798625374631</v>
       </c>
       <c r="N28" t="n">
-        <v>312.2549411432719</v>
+        <v>312.254941143272</v>
       </c>
       <c r="O28" t="n">
         <v>278.3747659393529</v>
@@ -36771,7 +36771,7 @@
         <v>226.0382008873191</v>
       </c>
       <c r="Q28" t="n">
-        <v>96.9435095663559</v>
+        <v>96.94350956635593</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,19 +36829,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>51.10911135338023</v>
+        <v>220.2057265254541</v>
       </c>
       <c r="K29" t="n">
-        <v>166.2727787855744</v>
+        <v>451.9957503508091</v>
       </c>
       <c r="L29" t="n">
-        <v>613.5453707935131</v>
+        <v>613.5453707935133</v>
       </c>
       <c r="M29" t="n">
-        <v>699.4617309010711</v>
+        <v>249.9481974082386</v>
       </c>
       <c r="N29" t="n">
-        <v>695.9999574709548</v>
+        <v>695.9999574709549</v>
       </c>
       <c r="O29" t="n">
         <v>611.5689449878214</v>
@@ -36853,7 +36853,7 @@
         <v>285.3907346341838</v>
       </c>
       <c r="R29" t="n">
-        <v>21.95205782021623</v>
+        <v>16.6460045757384</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>11.43231037042392</v>
+        <v>11.43231037042395</v>
       </c>
       <c r="K30" t="n">
-        <v>98.48390673357309</v>
+        <v>362.9491437461517</v>
       </c>
       <c r="L30" t="n">
-        <v>550.0545571869791</v>
+        <v>179.2142118835199</v>
       </c>
       <c r="M30" t="n">
-        <v>694.3919881229875</v>
+        <v>694.3919881229876</v>
       </c>
       <c r="N30" t="n">
-        <v>249.2937735655426</v>
+        <v>409.1921753478139</v>
       </c>
       <c r="O30" t="n">
-        <v>469.2114429733649</v>
+        <v>205.610861746125</v>
       </c>
       <c r="P30" t="n">
         <v>463.9552624242909</v>
       </c>
       <c r="Q30" t="n">
-        <v>46.83444835153873</v>
+        <v>256.9117360873879</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>73.75126804819544</v>
+        <v>73.75126804819541</v>
       </c>
       <c r="K31" t="n">
         <v>200.6453556275976</v>
@@ -36996,10 +36996,10 @@
         <v>290.3699382859534</v>
       </c>
       <c r="M31" t="n">
-        <v>312.2798625374631</v>
+        <v>312.279862537463</v>
       </c>
       <c r="N31" t="n">
-        <v>312.254941143272</v>
+        <v>312.2549411432719</v>
       </c>
       <c r="O31" t="n">
         <v>278.3747659393529</v>
@@ -37008,7 +37008,7 @@
         <v>226.0382008873191</v>
       </c>
       <c r="Q31" t="n">
-        <v>96.94350956635593</v>
+        <v>96.9435095663559</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>89.53155235931031</v>
+        <v>220.2057265254541</v>
       </c>
       <c r="K32" t="n">
-        <v>127.8503377796443</v>
+        <v>127.8503377796444</v>
       </c>
       <c r="L32" t="n">
-        <v>613.5453707935131</v>
+        <v>613.5453707935133</v>
       </c>
       <c r="M32" t="n">
         <v>699.4617309010711</v>
       </c>
       <c r="N32" t="n">
-        <v>695.9999574709548</v>
+        <v>695.9999574709549</v>
       </c>
       <c r="O32" t="n">
         <v>611.5689449878214</v>
       </c>
       <c r="P32" t="n">
-        <v>483.9050131696665</v>
+        <v>353.2308390035213</v>
       </c>
       <c r="Q32" t="n">
         <v>285.3907346341838</v>
       </c>
       <c r="R32" t="n">
-        <v>21.95205782021623</v>
+        <v>21.95205782021625</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,25 +37148,25 @@
         <v>137.5233457108328</v>
       </c>
       <c r="K33" t="n">
-        <v>98.48390673357309</v>
+        <v>362.9491437461517</v>
       </c>
       <c r="L33" t="n">
         <v>550.0545571869791</v>
       </c>
       <c r="M33" t="n">
-        <v>228.6869243729876</v>
+        <v>228.6869243729877</v>
       </c>
       <c r="N33" t="n">
-        <v>728.6361479090961</v>
+        <v>249.2937735655426</v>
       </c>
       <c r="O33" t="n">
-        <v>437.8685779434905</v>
+        <v>334.2829466345282</v>
       </c>
       <c r="P33" t="n">
-        <v>145.4924937843537</v>
+        <v>463.9552624242909</v>
       </c>
       <c r="Q33" t="n">
-        <v>256.9117360873878</v>
+        <v>256.9117360873879</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37303,22 +37303,22 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>220.205726525454</v>
+        <v>220.2057265254541</v>
       </c>
       <c r="K35" t="n">
-        <v>127.8503377796443</v>
+        <v>451.9957503508091</v>
       </c>
       <c r="L35" t="n">
-        <v>613.5453707935131</v>
+        <v>613.5453707935133</v>
       </c>
       <c r="M35" t="n">
-        <v>699.4617309010711</v>
+        <v>249.9481974082386</v>
       </c>
       <c r="N35" t="n">
-        <v>695.9999574709548</v>
+        <v>690.6939042264777</v>
       </c>
       <c r="O35" t="n">
-        <v>480.894770821677</v>
+        <v>611.5689449878214</v>
       </c>
       <c r="P35" t="n">
         <v>483.9050131696665</v>
@@ -37327,7 +37327,7 @@
         <v>285.3907346341838</v>
       </c>
       <c r="R35" t="n">
-        <v>21.95205782021623</v>
+        <v>21.95205782021625</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>11.43231037042392</v>
+        <v>137.5233457108328</v>
       </c>
       <c r="K36" t="n">
         <v>362.9491437461517</v>
       </c>
       <c r="L36" t="n">
-        <v>179.2142118835199</v>
+        <v>550.0545571869791</v>
       </c>
       <c r="M36" t="n">
-        <v>694.3919881229875</v>
+        <v>228.6869243729877</v>
       </c>
       <c r="N36" t="n">
-        <v>619.2694630836633</v>
+        <v>249.2937735655426</v>
       </c>
       <c r="O36" t="n">
-        <v>205.6108617461249</v>
+        <v>334.2829466345282</v>
       </c>
       <c r="P36" t="n">
         <v>463.9552624242909</v>
       </c>
       <c r="Q36" t="n">
-        <v>46.83444835153873</v>
+        <v>256.9117360873879</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,19 +37461,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>73.75126804819543</v>
+        <v>73.75126804819547</v>
       </c>
       <c r="K37" t="n">
         <v>200.6453556275976</v>
       </c>
       <c r="L37" t="n">
-        <v>290.3699382859534</v>
+        <v>290.3699382859535</v>
       </c>
       <c r="M37" t="n">
-        <v>312.279862537463</v>
+        <v>312.2798625374631</v>
       </c>
       <c r="N37" t="n">
-        <v>312.2549411432719</v>
+        <v>312.254941143272</v>
       </c>
       <c r="O37" t="n">
         <v>278.3747659393529</v>
@@ -37482,7 +37482,7 @@
         <v>226.0382008873191</v>
       </c>
       <c r="Q37" t="n">
-        <v>96.94350956635591</v>
+        <v>96.94350956635596</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,22 +37540,22 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>220.205726525454</v>
+        <v>220.2057265254541</v>
       </c>
       <c r="K38" t="n">
         <v>451.9957503508091</v>
       </c>
       <c r="L38" t="n">
-        <v>613.5453707935131</v>
+        <v>613.5453707935133</v>
       </c>
       <c r="M38" t="n">
         <v>699.4617309010711</v>
       </c>
       <c r="N38" t="n">
-        <v>643.9326098166071</v>
+        <v>263.1324285538608</v>
       </c>
       <c r="O38" t="n">
-        <v>230.768763725076</v>
+        <v>611.5689449878214</v>
       </c>
       <c r="P38" t="n">
         <v>483.9050131696665</v>
@@ -37622,25 +37622,25 @@
         <v>137.5233457108328</v>
       </c>
       <c r="K39" t="n">
-        <v>98.48390673357309</v>
+        <v>362.9491437461517</v>
       </c>
       <c r="L39" t="n">
-        <v>179.2142118835199</v>
+        <v>550.0545571869791</v>
       </c>
       <c r="M39" t="n">
-        <v>694.3919881229875</v>
+        <v>228.6869243729877</v>
       </c>
       <c r="N39" t="n">
-        <v>547.5663770199837</v>
+        <v>249.2937735655426</v>
       </c>
       <c r="O39" t="n">
-        <v>205.6108617461249</v>
+        <v>334.2829466345282</v>
       </c>
       <c r="P39" t="n">
         <v>463.9552624242909</v>
       </c>
       <c r="Q39" t="n">
-        <v>256.9117360873878</v>
+        <v>256.9117360873879</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,19 +37698,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>73.75126804819543</v>
+        <v>73.75126804819547</v>
       </c>
       <c r="K40" t="n">
         <v>200.6453556275976</v>
       </c>
       <c r="L40" t="n">
-        <v>290.3699382859534</v>
+        <v>290.3699382859527</v>
       </c>
       <c r="M40" t="n">
-        <v>312.279862537463</v>
+        <v>312.2798625374631</v>
       </c>
       <c r="N40" t="n">
-        <v>312.2549411432719</v>
+        <v>312.254941143272</v>
       </c>
       <c r="O40" t="n">
         <v>278.3747659393529</v>
@@ -37719,7 +37719,7 @@
         <v>226.0382008873191</v>
       </c>
       <c r="Q40" t="n">
-        <v>96.94350956635591</v>
+        <v>96.94350956635596</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>220.205726525454</v>
+        <v>51.10911135338029</v>
       </c>
       <c r="K41" t="n">
         <v>451.9957503508091</v>
       </c>
       <c r="L41" t="n">
-        <v>608.2393175490364</v>
+        <v>613.5453707935133</v>
       </c>
       <c r="M41" t="n">
-        <v>249.9481974082385</v>
+        <v>699.4617309010711</v>
       </c>
       <c r="N41" t="n">
-        <v>695.9999574709548</v>
+        <v>695.9999574709549</v>
       </c>
       <c r="O41" t="n">
         <v>611.5689449878214</v>
       </c>
       <c r="P41" t="n">
-        <v>483.9050131696665</v>
+        <v>220.1340994246461</v>
       </c>
       <c r="Q41" t="n">
         <v>285.3907346341838</v>
       </c>
       <c r="R41" t="n">
-        <v>21.95205782021623</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>11.43231037042392</v>
+        <v>137.5233457108328</v>
       </c>
       <c r="K42" t="n">
-        <v>98.48390673357309</v>
+        <v>362.9491437461517</v>
       </c>
       <c r="L42" t="n">
         <v>550.0545571869791</v>
       </c>
       <c r="M42" t="n">
-        <v>354.0529623376488</v>
+        <v>228.6869243729877</v>
       </c>
       <c r="N42" t="n">
         <v>249.2937735655426</v>
       </c>
       <c r="O42" t="n">
-        <v>599.4731810228544</v>
+        <v>334.2829466345282</v>
       </c>
       <c r="P42" t="n">
         <v>463.9552624242909</v>
       </c>
       <c r="Q42" t="n">
-        <v>256.9117360873878</v>
+        <v>256.9117360873879</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,16 +37935,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>73.75126804819548</v>
+        <v>73.75126804819544</v>
       </c>
       <c r="K43" t="n">
         <v>200.6453556275976</v>
       </c>
       <c r="L43" t="n">
-        <v>290.3699382859535</v>
+        <v>290.3699382859534</v>
       </c>
       <c r="M43" t="n">
-        <v>312.279862537462</v>
+        <v>312.2798625374631</v>
       </c>
       <c r="N43" t="n">
         <v>312.254941143272</v>
@@ -37956,7 +37956,7 @@
         <v>226.0382008873191</v>
       </c>
       <c r="Q43" t="n">
-        <v>96.94350956635597</v>
+        <v>96.94350956635593</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>220.205726525454</v>
+        <v>220.2057265254541</v>
       </c>
       <c r="K44" t="n">
         <v>451.9957503508091</v>
       </c>
       <c r="L44" t="n">
-        <v>613.5453707935131</v>
+        <v>613.5453707935133</v>
       </c>
       <c r="M44" t="n">
-        <v>625.4423254265071</v>
+        <v>699.4617309010711</v>
       </c>
       <c r="N44" t="n">
-        <v>695.9999574709548</v>
+        <v>695.9999574709549</v>
       </c>
       <c r="O44" t="n">
-        <v>230.768763725076</v>
+        <v>500.5001242422099</v>
       </c>
       <c r="P44" t="n">
-        <v>483.9050131696665</v>
+        <v>162.1063049981839</v>
       </c>
       <c r="Q44" t="n">
         <v>285.3907346341838</v>
       </c>
       <c r="R44" t="n">
-        <v>21.95205782021623</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>11.43231037042392</v>
+        <v>137.5233457108328</v>
       </c>
       <c r="K45" t="n">
-        <v>98.48390673357309</v>
+        <v>362.9491437461517</v>
       </c>
       <c r="L45" t="n">
-        <v>258.9132134338731</v>
+        <v>550.0545571869791</v>
       </c>
       <c r="M45" t="n">
-        <v>694.3919881229875</v>
+        <v>228.6869243729877</v>
       </c>
       <c r="N45" t="n">
-        <v>728.6361479090961</v>
+        <v>249.2937735655426</v>
       </c>
       <c r="O45" t="n">
-        <v>599.4731810228544</v>
+        <v>334.2829466345282</v>
       </c>
       <c r="P45" t="n">
-        <v>145.4924937843537</v>
+        <v>463.9552624242909</v>
       </c>
       <c r="Q45" t="n">
-        <v>46.83444835153873</v>
+        <v>256.9117360873879</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>73.75126804819543</v>
+        <v>73.7512680481955</v>
       </c>
       <c r="K46" t="n">
-        <v>200.6453556275976</v>
+        <v>200.6453556275964</v>
       </c>
       <c r="L46" t="n">
-        <v>290.3699382859534</v>
+        <v>290.3699382859535</v>
       </c>
       <c r="M46" t="n">
-        <v>312.279862537463</v>
+        <v>312.2798625374631</v>
       </c>
       <c r="N46" t="n">
-        <v>312.2549411432719</v>
+        <v>312.254941143272</v>
       </c>
       <c r="O46" t="n">
         <v>278.3747659393529</v>
       </c>
       <c r="P46" t="n">
-        <v>226.0382008873191</v>
+        <v>226.0382008873192</v>
       </c>
       <c r="Q46" t="n">
-        <v>96.94350956635591</v>
+        <v>96.94350956635598</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
